--- a/Test Execution/Sangeetha/Testcase- Insurance  - Copy of Anjana.xlsx
+++ b/Test Execution/Sangeetha/Testcase- Insurance  - Copy of Anjana.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Mediware\Mediware-Repository\Test Execution\Sangeetha\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7033B2DF-F8F7-4719-A6D8-51F263CDB872}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Insurance" sheetId="1" r:id="rId1"/>
     <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2202,8 +2208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2376,12 +2382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2396,6 +2396,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2704,22 +2710,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I692" sqref="I692"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="10" customWidth="1"/>
@@ -2737,7 +2743,7 @@
     <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="25.5">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2777,16 +2783,16 @@
       <c r="M1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="R1" s="21" t="s">
+      <c r="P1" s="25"/>
+      <c r="R1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="21"/>
-    </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" ht="71.25" customHeight="1">
+      <c r="S1" s="26"/>
+    </row>
+    <row r="2" spans="1:19" s="11" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
@@ -2825,7 +2831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" ht="30">
+    <row r="3" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="4"/>
@@ -2856,9 +2862,12 @@
       <c r="R3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="30">
+      <c r="S3" s="5">
+        <f>COUNTIF(L:L,"Fail")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="4"/>
@@ -2892,7 +2901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="150">
+    <row r="5" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="E5" s="10">
         <v>3</v>
       </c>
@@ -2914,7 +2923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="45">
+    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E6" s="10">
         <v>4</v>
       </c>
@@ -2933,12 +2942,12 @@
       <c r="R6" s="6"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L7" s="3"/>
       <c r="R7" s="6"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:19" ht="45">
+    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -2956,7 +2965,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E9" s="10">
         <v>1</v>
       </c>
@@ -2974,7 +2983,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="30">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E10" s="10">
         <v>2</v>
       </c>
@@ -2989,7 +2998,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="60">
+    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E11" s="10">
         <v>3</v>
       </c>
@@ -3004,7 +3013,7 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="30">
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="10">
         <v>4</v>
       </c>
@@ -3022,7 +3031,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="45">
+    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E13" s="10">
         <v>5</v>
       </c>
@@ -3037,7 +3046,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="45">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E14" s="10">
         <v>6</v>
       </c>
@@ -3054,10 +3063,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="45">
+    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
@@ -3076,7 +3085,7 @@
       <c r="I16" s="12"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="30">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="10">
         <v>1</v>
       </c>
@@ -3094,7 +3103,7 @@
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="30">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E18" s="10">
         <v>2</v>
       </c>
@@ -3109,7 +3118,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="60">
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E19" s="10">
         <v>3</v>
       </c>
@@ -3124,7 +3133,7 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="30">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E20" s="10">
         <v>4</v>
       </c>
@@ -3142,7 +3151,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="45">
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E21" s="10">
         <v>5</v>
       </c>
@@ -3157,7 +3166,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="45">
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E22" s="10">
         <v>6</v>
       </c>
@@ -3172,7 +3181,7 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="45">
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E23" s="10">
         <v>7</v>
       </c>
@@ -3189,10 +3198,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="45">
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>39</v>
       </c>
@@ -3207,7 +3216,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="30">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E26" s="10">
         <v>1</v>
       </c>
@@ -3222,7 +3231,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="30">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E27" s="10">
         <v>2</v>
       </c>
@@ -3237,7 +3246,7 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="45">
+    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E28" s="10">
         <v>3</v>
       </c>
@@ -3255,7 +3264,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="75">
+    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E29" s="10">
         <v>4</v>
       </c>
@@ -3270,7 +3279,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="30">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E30" s="10">
         <v>5</v>
       </c>
@@ -3287,10 +3296,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="45">
+    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>44</v>
       </c>
@@ -3308,7 +3317,7 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="30">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E33" s="10">
         <v>1</v>
       </c>
@@ -3323,7 +3332,7 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="30">
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E34" s="10">
         <v>2</v>
       </c>
@@ -3338,7 +3347,7 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="45">
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E35" s="10">
         <v>3</v>
       </c>
@@ -3353,7 +3362,7 @@
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="45">
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E36" s="10">
         <v>4</v>
       </c>
@@ -3368,7 +3377,7 @@
       </c>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="45">
+    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E37" s="10">
         <v>5</v>
       </c>
@@ -3386,7 +3395,7 @@
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="30">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E38" s="10">
         <v>6</v>
       </c>
@@ -3403,10 +3412,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="45">
+    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>47</v>
       </c>
@@ -3421,7 +3430,7 @@
       </c>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="30">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E41" s="10">
         <v>1</v>
       </c>
@@ -3436,7 +3445,7 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="30">
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E42" s="10">
         <v>2</v>
       </c>
@@ -3451,7 +3460,7 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="60">
+    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E43" s="10">
         <v>3</v>
       </c>
@@ -3466,7 +3475,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="45">
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E44" s="10">
         <v>4</v>
       </c>
@@ -3481,7 +3490,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="45">
+    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E45" s="10">
         <v>5</v>
       </c>
@@ -3496,7 +3505,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="45">
+    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E46" s="10">
         <v>6</v>
       </c>
@@ -3513,10 +3522,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" ht="45">
+    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>48</v>
       </c>
@@ -3531,7 +3540,7 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" ht="30">
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="10">
         <v>1</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E50" s="10">
         <v>2</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="60">
+    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E51" s="10">
         <v>3</v>
       </c>
@@ -3564,7 +3573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="45">
+    <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E52" s="10">
         <v>4</v>
       </c>
@@ -3575,7 +3584,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="45">
+    <row r="53" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E53" s="10">
         <v>5</v>
       </c>
@@ -3586,7 +3595,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="45">
+    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E54" s="10">
         <v>6</v>
       </c>
@@ -3597,7 +3606,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="45">
+    <row r="57" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>52</v>
       </c>
@@ -3611,7 +3620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="30">
+    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E58" s="10">
         <v>1</v>
       </c>
@@ -3625,7 +3634,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30">
+    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E59" s="10">
         <v>2</v>
       </c>
@@ -3639,7 +3648,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="60">
+    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E60" s="10">
         <v>3</v>
       </c>
@@ -3653,7 +3662,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="45">
+    <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E61" s="10">
         <v>4</v>
       </c>
@@ -3667,7 +3676,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="45">
+    <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E62" s="10">
         <v>5</v>
       </c>
@@ -3684,7 +3693,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="30">
+    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E63" s="10">
         <v>6</v>
       </c>
@@ -3698,7 +3707,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="45">
+    <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E64" s="10">
         <v>7</v>
       </c>
@@ -3715,10 +3724,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="60">
+    <row r="66" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>57</v>
       </c>
@@ -3733,7 +3742,7 @@
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="30">
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E67" s="10">
         <v>1</v>
       </c>
@@ -3748,7 +3757,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:13" ht="30">
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E68" s="10">
         <v>2</v>
       </c>
@@ -3763,7 +3772,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="60">
+    <row r="69" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E69" s="10">
         <v>3</v>
       </c>
@@ -3778,7 +3787,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="30">
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E70" s="10">
         <v>4</v>
       </c>
@@ -3793,7 +3802,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="45">
+    <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E71" s="10">
         <v>5</v>
       </c>
@@ -3811,7 +3820,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="45">
+    <row r="72" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E72" s="10">
         <v>6</v>
       </c>
@@ -3828,10 +3837,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="60">
+    <row r="74" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>100</v>
       </c>
@@ -3849,7 +3858,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:13" ht="30">
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E75" s="10">
         <v>1</v>
       </c>
@@ -3864,7 +3873,7 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="30">
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E76" s="10">
         <v>2</v>
       </c>
@@ -3879,7 +3888,7 @@
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:13" ht="60">
+    <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E77" s="10">
         <v>3</v>
       </c>
@@ -3894,7 +3903,7 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="30">
+    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E78" s="10">
         <v>4</v>
       </c>
@@ -3909,7 +3918,7 @@
       </c>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:13" ht="45">
+    <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E79" s="10">
         <v>5</v>
       </c>
@@ -3930,7 +3939,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="30">
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E80" s="10">
         <v>6</v>
       </c>
@@ -3953,10 +3962,10 @@
         <v>554</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="60">
+    <row r="82" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>103</v>
       </c>
@@ -3974,7 +3983,7 @@
       </c>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="30">
+    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E83" s="10">
         <v>1</v>
       </c>
@@ -3989,7 +3998,7 @@
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="30">
+    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E84" s="10">
         <v>2</v>
       </c>
@@ -4004,7 +4013,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="60">
+    <row r="85" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E85" s="10">
         <v>3</v>
       </c>
@@ -4019,7 +4028,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="30">
+    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E86" s="10">
         <v>4</v>
       </c>
@@ -4034,7 +4043,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="45">
+    <row r="87" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E87" s="10">
         <v>5</v>
       </c>
@@ -4051,10 +4060,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="60">
+    <row r="89" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>104</v>
       </c>
@@ -4072,7 +4081,7 @@
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="53.25" customHeight="1">
+    <row r="90" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E90" s="10">
         <v>1</v>
       </c>
@@ -4084,7 +4093,7 @@
       </c>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="30">
+    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E91" s="10">
         <v>2</v>
       </c>
@@ -4096,7 +4105,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="60">
+    <row r="92" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E92" s="10">
         <v>3</v>
       </c>
@@ -4108,7 +4117,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="30">
+    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E93" s="10">
         <v>4</v>
       </c>
@@ -4120,7 +4129,7 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="45">
+    <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E94" s="10">
         <v>5</v>
       </c>
@@ -4132,7 +4141,7 @@
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="30">
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E95" s="10">
         <v>6</v>
       </c>
@@ -4144,10 +4153,10 @@
       </c>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="45">
+    <row r="97" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>105</v>
       </c>
@@ -4165,7 +4174,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="30">
+    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F98" s="10" t="s">
         <v>22</v>
       </c>
@@ -4174,7 +4183,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="30">
+    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F99" s="10" t="s">
         <v>23</v>
       </c>
@@ -4183,7 +4192,7 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="60">
+    <row r="100" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F100" s="10" t="s">
         <v>31</v>
       </c>
@@ -4192,7 +4201,7 @@
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="30">
+    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F101" s="10" t="s">
         <v>33</v>
       </c>
@@ -4201,7 +4210,7 @@
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="45">
+    <row r="102" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F102" s="10" t="s">
         <v>35</v>
       </c>
@@ -4210,13 +4219,13 @@
       </c>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="45">
+    <row r="105" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>106</v>
       </c>
@@ -4237,7 +4246,7 @@
       </c>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="30">
+    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E106" s="10">
         <v>1</v>
       </c>
@@ -4252,7 +4261,7 @@
       </c>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="30">
+    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E107" s="10">
         <v>2</v>
       </c>
@@ -4267,7 +4276,7 @@
       </c>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="60">
+    <row r="108" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E108" s="10">
         <v>3</v>
       </c>
@@ -4282,7 +4291,7 @@
       </c>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="30">
+    <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E109" s="10">
         <v>4</v>
       </c>
@@ -4297,7 +4306,7 @@
       </c>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="60">
+    <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E110" s="10">
         <v>5</v>
       </c>
@@ -4312,12 +4321,12 @@
       </c>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L111" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="45">
+    <row r="112" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>107</v>
       </c>
@@ -4332,7 +4341,7 @@
       </c>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="30">
+    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E113" s="10">
         <v>1</v>
       </c>
@@ -4344,7 +4353,7 @@
       </c>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="30">
+    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E114" s="10">
         <v>2</v>
       </c>
@@ -4356,7 +4365,7 @@
       </c>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="60">
+    <row r="115" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E115" s="10">
         <v>3</v>
       </c>
@@ -4368,7 +4377,7 @@
       </c>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="30">
+    <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E116" s="10">
         <v>4</v>
       </c>
@@ -4380,7 +4389,7 @@
       </c>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="45">
+    <row r="117" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E117" s="10">
         <v>5</v>
       </c>
@@ -4392,7 +4401,7 @@
       </c>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="30">
+    <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E118" s="10">
         <v>6</v>
       </c>
@@ -4404,7 +4413,7 @@
       </c>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="30">
+    <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E119" s="10">
         <v>7</v>
       </c>
@@ -4416,10 +4425,10 @@
       </c>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="45">
+    <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>108</v>
       </c>
@@ -4434,7 +4443,7 @@
       </c>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="30">
+    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E122" s="10">
         <v>1</v>
       </c>
@@ -4449,7 +4458,7 @@
       </c>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="30">
+    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E123" s="10">
         <v>2</v>
       </c>
@@ -4464,7 +4473,7 @@
       </c>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="60">
+    <row r="124" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E124" s="10">
         <v>3</v>
       </c>
@@ -4479,7 +4488,7 @@
       </c>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="30">
+    <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E125" s="10">
         <v>4</v>
       </c>
@@ -4496,10 +4505,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="45">
+    <row r="127" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>109</v>
       </c>
@@ -4514,7 +4523,7 @@
       </c>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="30">
+    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F128" s="10" t="s">
         <v>22</v>
       </c>
@@ -4523,7 +4532,7 @@
       </c>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="30">
+    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F129" s="10" t="s">
         <v>23</v>
       </c>
@@ -4532,7 +4541,7 @@
       </c>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="60">
+    <row r="130" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F130" s="10" t="s">
         <v>31</v>
       </c>
@@ -4541,7 +4550,7 @@
       </c>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="30">
+    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F131" s="10" t="s">
         <v>54</v>
       </c>
@@ -4550,7 +4559,7 @@
       </c>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="45">
+    <row r="132" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F132" s="10" t="s">
         <v>55</v>
       </c>
@@ -4559,7 +4568,7 @@
       </c>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="30">
+    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F133" s="10" t="s">
         <v>81</v>
       </c>
@@ -4568,10 +4577,10 @@
       </c>
       <c r="L133" s="3"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L134" s="3"/>
     </row>
-    <row r="135" spans="1:12" ht="45">
+    <row r="135" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>110</v>
       </c>
@@ -4586,7 +4595,7 @@
       </c>
       <c r="L135" s="3"/>
     </row>
-    <row r="136" spans="1:12" ht="30">
+    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F136" s="10" t="s">
         <v>22</v>
       </c>
@@ -4595,7 +4604,7 @@
       </c>
       <c r="L136" s="3"/>
     </row>
-    <row r="137" spans="1:12" ht="30">
+    <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F137" s="10" t="s">
         <v>23</v>
       </c>
@@ -4604,7 +4613,7 @@
       </c>
       <c r="L137" s="3"/>
     </row>
-    <row r="138" spans="1:12" ht="60">
+    <row r="138" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F138" s="10" t="s">
         <v>31</v>
       </c>
@@ -4613,7 +4622,7 @@
       </c>
       <c r="L138" s="3"/>
     </row>
-    <row r="139" spans="1:12" ht="30">
+    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F139" s="10" t="s">
         <v>54</v>
       </c>
@@ -4622,7 +4631,7 @@
       </c>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:12" ht="45">
+    <row r="140" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F140" s="10" t="s">
         <v>55</v>
       </c>
@@ -4631,7 +4640,7 @@
       </c>
       <c r="L140" s="3"/>
     </row>
-    <row r="141" spans="1:12" ht="45">
+    <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F141" s="10" t="s">
         <v>90</v>
       </c>
@@ -4640,10 +4649,10 @@
       </c>
       <c r="L141" s="3"/>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L142" s="3"/>
     </row>
-    <row r="143" spans="1:12" ht="45">
+    <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>111</v>
       </c>
@@ -4658,7 +4667,7 @@
       </c>
       <c r="L143" s="3"/>
     </row>
-    <row r="144" spans="1:12" ht="30">
+    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F144" s="10" t="s">
         <v>22</v>
       </c>
@@ -4667,7 +4676,7 @@
       </c>
       <c r="L144" s="3"/>
     </row>
-    <row r="145" spans="1:12" ht="30">
+    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F145" s="10" t="s">
         <v>23</v>
       </c>
@@ -4676,7 +4685,7 @@
       </c>
       <c r="L145" s="3"/>
     </row>
-    <row r="146" spans="1:12" ht="60">
+    <row r="146" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F146" s="10" t="s">
         <v>31</v>
       </c>
@@ -4685,7 +4694,7 @@
       </c>
       <c r="L146" s="3"/>
     </row>
-    <row r="147" spans="1:12" ht="30">
+    <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F147" s="10" t="s">
         <v>54</v>
       </c>
@@ -4694,7 +4703,7 @@
       </c>
       <c r="L147" s="3"/>
     </row>
-    <row r="148" spans="1:12" ht="45">
+    <row r="148" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F148" s="10" t="s">
         <v>55</v>
       </c>
@@ -4703,7 +4712,7 @@
       </c>
       <c r="L148" s="3"/>
     </row>
-    <row r="149" spans="1:12" ht="30">
+    <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F149" s="10" t="s">
         <v>58</v>
       </c>
@@ -4712,10 +4721,10 @@
       </c>
       <c r="L149" s="3"/>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L150" s="3"/>
     </row>
-    <row r="151" spans="1:12" ht="45">
+    <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>112</v>
       </c>
@@ -4730,7 +4739,7 @@
       </c>
       <c r="L151" s="3"/>
     </row>
-    <row r="152" spans="1:12" ht="30">
+    <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F152" s="10" t="s">
         <v>22</v>
       </c>
@@ -4739,7 +4748,7 @@
       </c>
       <c r="L152" s="3"/>
     </row>
-    <row r="153" spans="1:12" ht="30">
+    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F153" s="10" t="s">
         <v>23</v>
       </c>
@@ -4748,7 +4757,7 @@
       </c>
       <c r="L153" s="3"/>
     </row>
-    <row r="154" spans="1:12" ht="60">
+    <row r="154" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F154" s="10" t="s">
         <v>31</v>
       </c>
@@ -4757,7 +4766,7 @@
       </c>
       <c r="L154" s="3"/>
     </row>
-    <row r="155" spans="1:12" ht="30">
+    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F155" s="10" t="s">
         <v>54</v>
       </c>
@@ -4766,7 +4775,7 @@
       </c>
       <c r="L155" s="3"/>
     </row>
-    <row r="156" spans="1:12" ht="45">
+    <row r="156" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F156" s="10" t="s">
         <v>55</v>
       </c>
@@ -4775,7 +4784,7 @@
       </c>
       <c r="L156" s="3"/>
     </row>
-    <row r="157" spans="1:12" ht="45">
+    <row r="157" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F157" s="10" t="s">
         <v>86</v>
       </c>
@@ -4784,10 +4793,10 @@
       </c>
       <c r="L157" s="3"/>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L158" s="3"/>
     </row>
-    <row r="159" spans="1:12" ht="45">
+    <row r="159" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>113</v>
       </c>
@@ -4802,7 +4811,7 @@
       </c>
       <c r="L159" s="3"/>
     </row>
-    <row r="160" spans="1:12" ht="30">
+    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F160" s="10" t="s">
         <v>22</v>
       </c>
@@ -4811,7 +4820,7 @@
       </c>
       <c r="L160" s="3"/>
     </row>
-    <row r="161" spans="1:12" ht="30">
+    <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F161" s="10" t="s">
         <v>23</v>
       </c>
@@ -4820,7 +4829,7 @@
       </c>
       <c r="L161" s="3"/>
     </row>
-    <row r="162" spans="1:12" ht="60">
+    <row r="162" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F162" s="10" t="s">
         <v>31</v>
       </c>
@@ -4829,7 +4838,7 @@
       </c>
       <c r="L162" s="3"/>
     </row>
-    <row r="163" spans="1:12" ht="30">
+    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F163" s="10" t="s">
         <v>54</v>
       </c>
@@ -4838,7 +4847,7 @@
       </c>
       <c r="L163" s="3"/>
     </row>
-    <row r="164" spans="1:12" ht="45">
+    <row r="164" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F164" s="10" t="s">
         <v>55</v>
       </c>
@@ -4847,7 +4856,7 @@
       </c>
       <c r="L164" s="3"/>
     </row>
-    <row r="165" spans="1:12" ht="30">
+    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F165" s="10" t="s">
         <v>84</v>
       </c>
@@ -4856,13 +4865,13 @@
       </c>
       <c r="L165" s="3"/>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L166" s="3"/>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L167" s="3"/>
     </row>
-    <row r="168" spans="1:12" ht="45">
+    <row r="168" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>118</v>
       </c>
@@ -4877,7 +4886,7 @@
       </c>
       <c r="L168" s="3"/>
     </row>
-    <row r="169" spans="1:12" ht="30">
+    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F169" s="10" t="s">
         <v>22</v>
       </c>
@@ -4886,7 +4895,7 @@
       </c>
       <c r="L169" s="3"/>
     </row>
-    <row r="170" spans="1:12" ht="30">
+    <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F170" s="10" t="s">
         <v>23</v>
       </c>
@@ -4895,7 +4904,7 @@
       </c>
       <c r="L170" s="3"/>
     </row>
-    <row r="171" spans="1:12" ht="60">
+    <row r="171" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F171" s="10" t="s">
         <v>31</v>
       </c>
@@ -4904,7 +4913,7 @@
       </c>
       <c r="L171" s="3"/>
     </row>
-    <row r="172" spans="1:12" ht="30">
+    <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F172" s="10" t="s">
         <v>115</v>
       </c>
@@ -4913,7 +4922,7 @@
       </c>
       <c r="L172" s="3"/>
     </row>
-    <row r="173" spans="1:12" ht="30">
+    <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F173" s="10" t="s">
         <v>178</v>
       </c>
@@ -4922,13 +4931,13 @@
       </c>
       <c r="L173" s="3"/>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L174" s="3"/>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L175" s="3"/>
     </row>
-    <row r="176" spans="1:12" ht="45">
+    <row r="176" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>131</v>
       </c>
@@ -4943,7 +4952,7 @@
       </c>
       <c r="L176" s="3"/>
     </row>
-    <row r="177" spans="1:12" ht="30">
+    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F177" s="10" t="s">
         <v>22</v>
       </c>
@@ -4952,7 +4961,7 @@
       </c>
       <c r="L177" s="3"/>
     </row>
-    <row r="178" spans="1:12" ht="30">
+    <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F178" s="10" t="s">
         <v>23</v>
       </c>
@@ -4961,7 +4970,7 @@
       </c>
       <c r="L178" s="3"/>
     </row>
-    <row r="179" spans="1:12" ht="60">
+    <row r="179" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F179" s="10" t="s">
         <v>31</v>
       </c>
@@ -4970,7 +4979,7 @@
       </c>
       <c r="L179" s="3"/>
     </row>
-    <row r="180" spans="1:12" ht="30">
+    <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F180" s="10" t="s">
         <v>115</v>
       </c>
@@ -4979,7 +4988,7 @@
       </c>
       <c r="L180" s="3"/>
     </row>
-    <row r="181" spans="1:12" ht="45">
+    <row r="181" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F181" s="10" t="s">
         <v>179</v>
       </c>
@@ -4988,16 +4997,16 @@
       </c>
       <c r="L181" s="3"/>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G182" s="13"/>
       <c r="L182" s="3"/>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
       <c r="L183" s="3"/>
     </row>
-    <row r="184" spans="1:12" ht="45">
+    <row r="184" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>132</v>
       </c>
@@ -5012,7 +5021,7 @@
       </c>
       <c r="L184" s="3"/>
     </row>
-    <row r="185" spans="1:12" ht="30">
+    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F185" s="10" t="s">
         <v>22</v>
       </c>
@@ -5021,7 +5030,7 @@
       </c>
       <c r="L185" s="3"/>
     </row>
-    <row r="186" spans="1:12" ht="30">
+    <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F186" s="10" t="s">
         <v>23</v>
       </c>
@@ -5030,7 +5039,7 @@
       </c>
       <c r="L186" s="3"/>
     </row>
-    <row r="187" spans="1:12" ht="90">
+    <row r="187" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="F187" s="10" t="s">
         <v>120</v>
       </c>
@@ -5039,10 +5048,10 @@
       </c>
       <c r="L187" s="3"/>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L188" s="3"/>
     </row>
-    <row r="189" spans="1:12" ht="45">
+    <row r="189" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>133</v>
       </c>
@@ -5057,7 +5066,7 @@
       </c>
       <c r="L189" s="3"/>
     </row>
-    <row r="190" spans="1:12" ht="30">
+    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F190" s="10" t="s">
         <v>22</v>
       </c>
@@ -5066,7 +5075,7 @@
       </c>
       <c r="L190" s="3"/>
     </row>
-    <row r="191" spans="1:12" ht="30">
+    <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F191" s="10" t="s">
         <v>23</v>
       </c>
@@ -5075,7 +5084,7 @@
       </c>
       <c r="L191" s="3"/>
     </row>
-    <row r="192" spans="1:12" ht="30">
+    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F192" s="10" t="s">
         <v>123</v>
       </c>
@@ -5084,7 +5093,7 @@
       </c>
       <c r="L192" s="3"/>
     </row>
-    <row r="193" spans="1:12" ht="30">
+    <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F193" s="10" t="s">
         <v>126</v>
       </c>
@@ -5093,15 +5102,15 @@
       </c>
       <c r="L193" s="3"/>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L194" s="3"/>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F195" s="13"/>
       <c r="G195" s="13"/>
       <c r="L195" s="3"/>
     </row>
-    <row r="196" spans="1:12" ht="45">
+    <row r="196" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>134</v>
       </c>
@@ -5116,7 +5125,7 @@
       </c>
       <c r="L196" s="3"/>
     </row>
-    <row r="197" spans="1:12" ht="30">
+    <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F197" s="10" t="s">
         <v>22</v>
       </c>
@@ -5125,7 +5134,7 @@
       </c>
       <c r="L197" s="3"/>
     </row>
-    <row r="198" spans="1:12" ht="30">
+    <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F198" s="10" t="s">
         <v>23</v>
       </c>
@@ -5134,7 +5143,7 @@
       </c>
       <c r="L198" s="3"/>
     </row>
-    <row r="199" spans="1:12" ht="30">
+    <row r="199" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F199" s="10" t="s">
         <v>127</v>
       </c>
@@ -5143,7 +5152,7 @@
       </c>
       <c r="L199" s="3"/>
     </row>
-    <row r="200" spans="1:12" ht="45">
+    <row r="200" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F200" s="10" t="s">
         <v>129</v>
       </c>
@@ -5152,13 +5161,13 @@
       </c>
       <c r="L200" s="3"/>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L201" s="3"/>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L202" s="3"/>
     </row>
-    <row r="203" spans="1:12" ht="60">
+    <row r="203" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>139</v>
       </c>
@@ -5173,7 +5182,7 @@
       </c>
       <c r="L203" s="3"/>
     </row>
-    <row r="204" spans="1:12" ht="30">
+    <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E204" s="10">
         <v>1</v>
       </c>
@@ -5185,7 +5194,7 @@
       </c>
       <c r="L204" s="3"/>
     </row>
-    <row r="205" spans="1:12" ht="30">
+    <row r="205" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E205" s="10">
         <v>2</v>
       </c>
@@ -5197,7 +5206,7 @@
       </c>
       <c r="L205" s="3"/>
     </row>
-    <row r="206" spans="1:12" ht="30">
+    <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E206" s="10">
         <v>3</v>
       </c>
@@ -5209,7 +5218,7 @@
       </c>
       <c r="L206" s="3"/>
     </row>
-    <row r="207" spans="1:12" ht="195">
+    <row r="207" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="E207" s="10">
         <v>4</v>
       </c>
@@ -5221,7 +5230,7 @@
       </c>
       <c r="L207" s="3"/>
     </row>
-    <row r="208" spans="1:12" ht="45">
+    <row r="208" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E208" s="10">
         <v>5</v>
       </c>
@@ -5233,12 +5242,12 @@
       </c>
       <c r="L208" s="3"/>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
       <c r="L209" s="3"/>
     </row>
-    <row r="210" spans="1:12" ht="45">
+    <row r="210" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>140</v>
       </c>
@@ -5253,7 +5262,7 @@
       </c>
       <c r="L210" s="3"/>
     </row>
-    <row r="211" spans="1:12" ht="30">
+    <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F211" s="10" t="s">
         <v>22</v>
       </c>
@@ -5262,7 +5271,7 @@
       </c>
       <c r="L211" s="3"/>
     </row>
-    <row r="212" spans="1:12" ht="30">
+    <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F212" s="10" t="s">
         <v>23</v>
       </c>
@@ -5271,7 +5280,7 @@
       </c>
       <c r="L212" s="3"/>
     </row>
-    <row r="213" spans="1:12" ht="45">
+    <row r="213" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F213" s="10" t="s">
         <v>137</v>
       </c>
@@ -5280,14 +5289,14 @@
       </c>
       <c r="L213" s="3"/>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L214" s="3"/>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G215" s="13"/>
       <c r="L215" s="3"/>
     </row>
-    <row r="216" spans="1:12" ht="45">
+    <row r="216" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>142</v>
       </c>
@@ -5302,7 +5311,7 @@
       </c>
       <c r="L216" s="3"/>
     </row>
-    <row r="217" spans="1:12" ht="30">
+    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F217" s="10" t="s">
         <v>22</v>
       </c>
@@ -5311,7 +5320,7 @@
       </c>
       <c r="L217" s="3"/>
     </row>
-    <row r="218" spans="1:12" ht="30">
+    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F218" s="10" t="s">
         <v>23</v>
       </c>
@@ -5320,7 +5329,7 @@
       </c>
       <c r="L218" s="3"/>
     </row>
-    <row r="219" spans="1:12" ht="45">
+    <row r="219" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F219" s="10" t="s">
         <v>137</v>
       </c>
@@ -5329,7 +5338,7 @@
       </c>
       <c r="L219" s="3"/>
     </row>
-    <row r="220" spans="1:12" ht="30">
+    <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F220" s="10" t="s">
         <v>150</v>
       </c>
@@ -5338,12 +5347,12 @@
       </c>
       <c r="L220" s="3"/>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C221"/>
       <c r="D221" s="13"/>
       <c r="L221" s="3"/>
     </row>
-    <row r="222" spans="1:12" ht="45">
+    <row r="222" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>176</v>
       </c>
@@ -5358,7 +5367,7 @@
       </c>
       <c r="L222" s="3"/>
     </row>
-    <row r="223" spans="1:12" ht="30">
+    <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F223" s="10" t="s">
         <v>22</v>
       </c>
@@ -5367,7 +5376,7 @@
       </c>
       <c r="L223" s="3"/>
     </row>
-    <row r="224" spans="1:12" ht="30">
+    <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F224" s="10" t="s">
         <v>23</v>
       </c>
@@ -5376,7 +5385,7 @@
       </c>
       <c r="L224" s="3"/>
     </row>
-    <row r="225" spans="1:12" ht="75">
+    <row r="225" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F225" s="10" t="s">
         <v>152</v>
       </c>
@@ -5385,7 +5394,7 @@
       </c>
       <c r="L225" s="3"/>
     </row>
-    <row r="226" spans="1:12" ht="45">
+    <row r="226" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>189</v>
       </c>
@@ -5401,7 +5410,7 @@
       <c r="J226" s="3"/>
       <c r="L226" s="3"/>
     </row>
-    <row r="227" spans="1:12" ht="30">
+    <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F227" s="10" t="s">
         <v>22</v>
       </c>
@@ -5411,7 +5420,7 @@
       <c r="J227" s="3"/>
       <c r="L227" s="3"/>
     </row>
-    <row r="228" spans="1:12" ht="30">
+    <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F228" s="10" t="s">
         <v>23</v>
       </c>
@@ -5421,7 +5430,7 @@
       <c r="J228" s="3"/>
       <c r="L228" s="3"/>
     </row>
-    <row r="229" spans="1:12" ht="75">
+    <row r="229" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F229" s="10" t="s">
         <v>152</v>
       </c>
@@ -5430,7 +5439,7 @@
       </c>
       <c r="L229" s="3"/>
     </row>
-    <row r="230" spans="1:12" ht="60">
+    <row r="230" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>190</v>
       </c>
@@ -5448,7 +5457,7 @@
       </c>
       <c r="L230" s="3"/>
     </row>
-    <row r="231" spans="1:12" ht="30">
+    <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F231" s="10" t="s">
         <v>22</v>
       </c>
@@ -5457,7 +5466,7 @@
       </c>
       <c r="L231" s="3"/>
     </row>
-    <row r="232" spans="1:12" ht="30">
+    <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F232" s="10" t="s">
         <v>23</v>
       </c>
@@ -5467,7 +5476,7 @@
       <c r="I232" s="12"/>
       <c r="L232" s="3"/>
     </row>
-    <row r="233" spans="1:12" ht="60">
+    <row r="233" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F233" s="10" t="s">
         <v>157</v>
       </c>
@@ -5476,7 +5485,7 @@
       </c>
       <c r="L233" s="3"/>
     </row>
-    <row r="234" spans="1:12" ht="60">
+    <row r="234" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F234" s="10" t="s">
         <v>158</v>
       </c>
@@ -5485,7 +5494,7 @@
       </c>
       <c r="L234" s="3"/>
     </row>
-    <row r="235" spans="1:12" ht="30">
+    <row r="235" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F235" s="10" t="s">
         <v>62</v>
       </c>
@@ -5494,7 +5503,7 @@
       </c>
       <c r="L235" s="3"/>
     </row>
-    <row r="236" spans="1:12" ht="45">
+    <row r="236" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F236" s="10" t="s">
         <v>63</v>
       </c>
@@ -5503,7 +5512,7 @@
       </c>
       <c r="L236" s="3"/>
     </row>
-    <row r="237" spans="1:12" ht="45">
+    <row r="237" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F237" s="10" t="s">
         <v>162</v>
       </c>
@@ -5512,10 +5521,10 @@
       </c>
       <c r="L237" s="3"/>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L238" s="3"/>
     </row>
-    <row r="239" spans="1:12" ht="60">
+    <row r="239" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>191</v>
       </c>
@@ -5533,7 +5542,7 @@
       </c>
       <c r="L239" s="3"/>
     </row>
-    <row r="240" spans="1:12" ht="30">
+    <row r="240" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F240" s="10" t="s">
         <v>22</v>
       </c>
@@ -5542,7 +5551,7 @@
       </c>
       <c r="L240" s="3"/>
     </row>
-    <row r="241" spans="1:12" ht="30">
+    <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F241" s="10" t="s">
         <v>23</v>
       </c>
@@ -5552,7 +5561,7 @@
       <c r="I241" s="12"/>
       <c r="L241" s="3"/>
     </row>
-    <row r="242" spans="1:12" ht="60">
+    <row r="242" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F242" s="10" t="s">
         <v>157</v>
       </c>
@@ -5561,7 +5570,7 @@
       </c>
       <c r="L242" s="3"/>
     </row>
-    <row r="243" spans="1:12" ht="60">
+    <row r="243" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F243" s="10" t="s">
         <v>158</v>
       </c>
@@ -5570,7 +5579,7 @@
       </c>
       <c r="L243" s="3"/>
     </row>
-    <row r="244" spans="1:12" ht="30">
+    <row r="244" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F244" s="10" t="s">
         <v>164</v>
       </c>
@@ -5579,7 +5588,7 @@
       </c>
       <c r="L244" s="3"/>
     </row>
-    <row r="245" spans="1:12" ht="60">
+    <row r="245" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F245" s="10" t="s">
         <v>63</v>
       </c>
@@ -5588,7 +5597,7 @@
       </c>
       <c r="L245" s="3"/>
     </row>
-    <row r="246" spans="1:12" ht="45">
+    <row r="246" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F246" s="10" t="s">
         <v>162</v>
       </c>
@@ -5597,13 +5606,13 @@
       </c>
       <c r="L246" s="3"/>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L247" s="3"/>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L248" s="3"/>
     </row>
-    <row r="249" spans="1:12" ht="60">
+    <row r="249" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
         <v>192</v>
       </c>
@@ -5621,7 +5630,7 @@
       </c>
       <c r="L249" s="3"/>
     </row>
-    <row r="250" spans="1:12" ht="30">
+    <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F250" s="10" t="s">
         <v>22</v>
       </c>
@@ -5630,7 +5639,7 @@
       </c>
       <c r="L250" s="3"/>
     </row>
-    <row r="251" spans="1:12" ht="30">
+    <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F251" s="10" t="s">
         <v>23</v>
       </c>
@@ -5640,7 +5649,7 @@
       <c r="I251" s="12"/>
       <c r="L251" s="3"/>
     </row>
-    <row r="252" spans="1:12" ht="60">
+    <row r="252" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F252" s="10" t="s">
         <v>157</v>
       </c>
@@ -5649,7 +5658,7 @@
       </c>
       <c r="L252" s="3"/>
     </row>
-    <row r="253" spans="1:12" ht="60">
+    <row r="253" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F253" s="10" t="s">
         <v>158</v>
       </c>
@@ -5658,7 +5667,7 @@
       </c>
       <c r="L253" s="3"/>
     </row>
-    <row r="254" spans="1:12" ht="30">
+    <row r="254" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F254" s="10" t="s">
         <v>170</v>
       </c>
@@ -5667,10 +5676,10 @@
       </c>
       <c r="L254" s="3"/>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L255" s="3"/>
     </row>
-    <row r="256" spans="1:12" ht="60">
+    <row r="256" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>193</v>
       </c>
@@ -5688,7 +5697,7 @@
       </c>
       <c r="L256" s="3"/>
     </row>
-    <row r="257" spans="1:12" ht="30">
+    <row r="257" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F257" s="10" t="s">
         <v>22</v>
       </c>
@@ -5697,7 +5706,7 @@
       </c>
       <c r="L257" s="3"/>
     </row>
-    <row r="258" spans="1:12" ht="30">
+    <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F258" s="10" t="s">
         <v>23</v>
       </c>
@@ -5707,7 +5716,7 @@
       <c r="I258" s="12"/>
       <c r="L258" s="3"/>
     </row>
-    <row r="259" spans="1:12" ht="60">
+    <row r="259" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F259" s="10" t="s">
         <v>157</v>
       </c>
@@ -5716,7 +5725,7 @@
       </c>
       <c r="L259" s="3"/>
     </row>
-    <row r="260" spans="1:12" ht="60">
+    <row r="260" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F260" s="10" t="s">
         <v>158</v>
       </c>
@@ -5725,7 +5734,7 @@
       </c>
       <c r="L260" s="3"/>
     </row>
-    <row r="261" spans="1:12" ht="30">
+    <row r="261" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F261" s="10" t="s">
         <v>164</v>
       </c>
@@ -5734,7 +5743,7 @@
       </c>
       <c r="L261" s="3"/>
     </row>
-    <row r="262" spans="1:12" ht="60">
+    <row r="262" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F262" s="10" t="s">
         <v>172</v>
       </c>
@@ -5743,10 +5752,10 @@
       </c>
       <c r="L262" s="3"/>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L263" s="3"/>
     </row>
-    <row r="264" spans="1:12" ht="45">
+    <row r="264" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>194</v>
       </c>
@@ -5761,7 +5770,7 @@
       </c>
       <c r="L264" s="3"/>
     </row>
-    <row r="265" spans="1:12" ht="30">
+    <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F265" s="10" t="s">
         <v>22</v>
       </c>
@@ -5770,7 +5779,7 @@
       </c>
       <c r="L265" s="3"/>
     </row>
-    <row r="266" spans="1:12" ht="30">
+    <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F266" s="10" t="s">
         <v>23</v>
       </c>
@@ -5779,7 +5788,7 @@
       </c>
       <c r="L266" s="3"/>
     </row>
-    <row r="267" spans="1:12" ht="60">
+    <row r="267" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F267" s="10" t="s">
         <v>168</v>
       </c>
@@ -5788,7 +5797,7 @@
       </c>
       <c r="L267" s="3"/>
     </row>
-    <row r="268" spans="1:12" ht="45">
+    <row r="268" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F268" s="10" t="s">
         <v>145</v>
       </c>
@@ -5797,7 +5806,7 @@
       </c>
       <c r="L268" s="3"/>
     </row>
-    <row r="269" spans="1:12" ht="45">
+    <row r="269" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F269" s="10" t="s">
         <v>169</v>
       </c>
@@ -5806,7 +5815,7 @@
       </c>
       <c r="L269" s="3"/>
     </row>
-    <row r="270" spans="1:12" ht="45">
+    <row r="270" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F270" s="10" t="s">
         <v>90</v>
       </c>
@@ -5815,10 +5824,10 @@
       </c>
       <c r="L270" s="3"/>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L271" s="3"/>
     </row>
-    <row r="272" spans="1:12" ht="45">
+    <row r="272" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
         <v>195</v>
       </c>
@@ -5833,7 +5842,7 @@
       </c>
       <c r="L272" s="3"/>
     </row>
-    <row r="273" spans="1:12" ht="30">
+    <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F273" s="10" t="s">
         <v>22</v>
       </c>
@@ -5842,7 +5851,7 @@
       </c>
       <c r="L273" s="3"/>
     </row>
-    <row r="274" spans="1:12" ht="30">
+    <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F274" s="10" t="s">
         <v>23</v>
       </c>
@@ -5851,7 +5860,7 @@
       </c>
       <c r="L274" s="3"/>
     </row>
-    <row r="275" spans="1:12" ht="60">
+    <row r="275" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F275" s="10" t="s">
         <v>168</v>
       </c>
@@ -5860,7 +5869,7 @@
       </c>
       <c r="L275" s="3"/>
     </row>
-    <row r="276" spans="1:12" ht="45">
+    <row r="276" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F276" s="10" t="s">
         <v>145</v>
       </c>
@@ -5869,7 +5878,7 @@
       </c>
       <c r="L276" s="3"/>
     </row>
-    <row r="277" spans="1:12" ht="45">
+    <row r="277" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F277" s="10" t="s">
         <v>169</v>
       </c>
@@ -5878,7 +5887,7 @@
       </c>
       <c r="L277" s="3"/>
     </row>
-    <row r="278" spans="1:12" ht="45">
+    <row r="278" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F278" s="10" t="s">
         <v>175</v>
       </c>
@@ -5887,10 +5896,10 @@
       </c>
       <c r="L278" s="3"/>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L279" s="3"/>
     </row>
-    <row r="280" spans="1:12" ht="45">
+    <row r="280" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>196</v>
       </c>
@@ -5905,7 +5914,7 @@
       </c>
       <c r="L280" s="3"/>
     </row>
-    <row r="281" spans="1:12" ht="30">
+    <row r="281" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F281" s="10" t="s">
         <v>22</v>
       </c>
@@ -5914,7 +5923,7 @@
       </c>
       <c r="L281" s="3"/>
     </row>
-    <row r="282" spans="1:12" ht="30">
+    <row r="282" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F282" s="10" t="s">
         <v>23</v>
       </c>
@@ -5923,7 +5932,7 @@
       </c>
       <c r="L282" s="3"/>
     </row>
-    <row r="283" spans="1:12" ht="60">
+    <row r="283" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F283" s="10" t="s">
         <v>168</v>
       </c>
@@ -5932,7 +5941,7 @@
       </c>
       <c r="L283" s="3"/>
     </row>
-    <row r="284" spans="1:12" ht="45">
+    <row r="284" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F284" s="10" t="s">
         <v>145</v>
       </c>
@@ -5941,7 +5950,7 @@
       </c>
       <c r="L284" s="3"/>
     </row>
-    <row r="285" spans="1:12" ht="45">
+    <row r="285" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F285" s="10" t="s">
         <v>169</v>
       </c>
@@ -5950,7 +5959,7 @@
       </c>
       <c r="L285" s="3"/>
     </row>
-    <row r="286" spans="1:12" ht="45">
+    <row r="286" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F286" s="10" t="s">
         <v>175</v>
       </c>
@@ -5959,10 +5968,10 @@
       </c>
       <c r="L286" s="3"/>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L287" s="3"/>
     </row>
-    <row r="288" spans="1:12" ht="45">
+    <row r="288" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
         <v>197</v>
       </c>
@@ -5977,7 +5986,7 @@
       </c>
       <c r="L288" s="3"/>
     </row>
-    <row r="289" spans="1:12" ht="30">
+    <row r="289" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F289" s="10" t="s">
         <v>22</v>
       </c>
@@ -5986,7 +5995,7 @@
       </c>
       <c r="L289" s="3"/>
     </row>
-    <row r="290" spans="1:12" ht="30">
+    <row r="290" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F290" s="10" t="s">
         <v>23</v>
       </c>
@@ -5995,7 +6004,7 @@
       </c>
       <c r="L290" s="3"/>
     </row>
-    <row r="291" spans="1:12" ht="60">
+    <row r="291" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F291" s="10" t="s">
         <v>168</v>
       </c>
@@ -6004,7 +6013,7 @@
       </c>
       <c r="L291" s="3"/>
     </row>
-    <row r="292" spans="1:12" ht="45">
+    <row r="292" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F292" s="10" t="s">
         <v>145</v>
       </c>
@@ -6013,7 +6022,7 @@
       </c>
       <c r="L292" s="3"/>
     </row>
-    <row r="293" spans="1:12" ht="45">
+    <row r="293" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F293" s="10" t="s">
         <v>169</v>
       </c>
@@ -6022,7 +6031,7 @@
       </c>
       <c r="L293" s="3"/>
     </row>
-    <row r="294" spans="1:12" ht="45">
+    <row r="294" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F294" s="10" t="s">
         <v>175</v>
       </c>
@@ -6031,10 +6040,10 @@
       </c>
       <c r="L294" s="3"/>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L295" s="3"/>
     </row>
-    <row r="296" spans="1:12" ht="45">
+    <row r="296" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>198</v>
       </c>
@@ -6049,7 +6058,7 @@
       </c>
       <c r="L296" s="3"/>
     </row>
-    <row r="297" spans="1:12" ht="30">
+    <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F297" s="10" t="s">
         <v>22</v>
       </c>
@@ -6058,7 +6067,7 @@
       </c>
       <c r="L297" s="3"/>
     </row>
-    <row r="298" spans="1:12" ht="30">
+    <row r="298" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F298" s="10" t="s">
         <v>23</v>
       </c>
@@ -6067,13 +6076,13 @@
       </c>
       <c r="L298" s="3"/>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F299" s="10" t="s">
         <v>168</v>
       </c>
       <c r="L299" s="3"/>
     </row>
-    <row r="300" spans="1:12" ht="30">
+    <row r="300" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F300" s="10" t="s">
         <v>186</v>
       </c>
@@ -6082,7 +6091,7 @@
       </c>
       <c r="L300" s="3"/>
     </row>
-    <row r="301" spans="1:12" ht="45">
+    <row r="301" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F301" s="10" t="s">
         <v>55</v>
       </c>
@@ -6091,7 +6100,7 @@
       </c>
       <c r="L301" s="3"/>
     </row>
-    <row r="302" spans="1:12" ht="45">
+    <row r="302" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F302" s="10" t="s">
         <v>86</v>
       </c>
@@ -6100,10 +6109,10 @@
       </c>
       <c r="L302" s="3"/>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L303" s="3"/>
     </row>
-    <row r="304" spans="1:12" ht="45">
+    <row r="304" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
         <v>199</v>
       </c>
@@ -6118,7 +6127,7 @@
       </c>
       <c r="L304" s="3"/>
     </row>
-    <row r="305" spans="1:12" ht="30">
+    <row r="305" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F305" s="10" t="s">
         <v>22</v>
       </c>
@@ -6127,7 +6136,7 @@
       </c>
       <c r="L305" s="3"/>
     </row>
-    <row r="306" spans="1:12" ht="30">
+    <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F306" s="10" t="s">
         <v>23</v>
       </c>
@@ -6136,13 +6145,13 @@
       </c>
       <c r="L306" s="3"/>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F307" s="10" t="s">
         <v>168</v>
       </c>
       <c r="L307" s="3"/>
     </row>
-    <row r="308" spans="1:12" ht="30">
+    <row r="308" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F308" s="10" t="s">
         <v>186</v>
       </c>
@@ -6151,7 +6160,7 @@
       </c>
       <c r="L308" s="3"/>
     </row>
-    <row r="309" spans="1:12" ht="45">
+    <row r="309" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F309" s="10" t="s">
         <v>55</v>
       </c>
@@ -6160,7 +6169,7 @@
       </c>
       <c r="L309" s="3"/>
     </row>
-    <row r="310" spans="1:12" ht="45">
+    <row r="310" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F310" s="10" t="s">
         <v>187</v>
       </c>
@@ -6169,10 +6178,10 @@
       </c>
       <c r="L310" s="3"/>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L311" s="3"/>
     </row>
-    <row r="312" spans="1:12" ht="45">
+    <row r="312" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
         <v>208</v>
       </c>
@@ -6187,7 +6196,7 @@
       </c>
       <c r="L312" s="3"/>
     </row>
-    <row r="313" spans="1:12" ht="30">
+    <row r="313" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F313" s="10" t="s">
         <v>22</v>
       </c>
@@ -6196,7 +6205,7 @@
       </c>
       <c r="L313" s="3"/>
     </row>
-    <row r="314" spans="1:12" ht="30">
+    <row r="314" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F314" s="10" t="s">
         <v>23</v>
       </c>
@@ -6205,7 +6214,7 @@
       </c>
       <c r="L314" s="3"/>
     </row>
-    <row r="315" spans="1:12" ht="30">
+    <row r="315" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F315" s="10" t="s">
         <v>202</v>
       </c>
@@ -6214,7 +6223,7 @@
       </c>
       <c r="L315" s="3"/>
     </row>
-    <row r="316" spans="1:12" ht="150">
+    <row r="316" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F316" s="10" t="s">
         <v>203</v>
       </c>
@@ -6223,13 +6232,13 @@
       </c>
       <c r="L316" s="3"/>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L317" s="3"/>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L318" s="3"/>
     </row>
-    <row r="319" spans="1:12" ht="45">
+    <row r="319" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>209</v>
       </c>
@@ -6244,7 +6253,7 @@
       </c>
       <c r="L319" s="3"/>
     </row>
-    <row r="320" spans="1:12" ht="30">
+    <row r="320" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F320" s="10" t="s">
         <v>22</v>
       </c>
@@ -6253,7 +6262,7 @@
       </c>
       <c r="L320" s="3"/>
     </row>
-    <row r="321" spans="1:12" ht="30">
+    <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F321" s="10" t="s">
         <v>23</v>
       </c>
@@ -6262,7 +6271,7 @@
       </c>
       <c r="L321" s="3"/>
     </row>
-    <row r="322" spans="1:12" ht="30">
+    <row r="322" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F322" s="10" t="s">
         <v>202</v>
       </c>
@@ -6271,7 +6280,7 @@
       </c>
       <c r="L322" s="3"/>
     </row>
-    <row r="323" spans="1:12" ht="150">
+    <row r="323" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F323" s="10" t="s">
         <v>203</v>
       </c>
@@ -6280,7 +6289,7 @@
       </c>
       <c r="L323" s="3"/>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F324" s="10" t="s">
         <v>206</v>
       </c>
@@ -6289,12 +6298,12 @@
       </c>
       <c r="L324" s="3"/>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C325"/>
       <c r="D325" s="13"/>
       <c r="L325" s="3"/>
     </row>
-    <row r="326" spans="1:12" ht="45">
+    <row r="326" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
         <v>210</v>
       </c>
@@ -6309,7 +6318,7 @@
       </c>
       <c r="L326" s="3"/>
     </row>
-    <row r="327" spans="1:12" ht="30">
+    <row r="327" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F327" s="10" t="s">
         <v>22</v>
       </c>
@@ -6318,7 +6327,7 @@
       </c>
       <c r="L327" s="3"/>
     </row>
-    <row r="328" spans="1:12" ht="30">
+    <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F328" s="10" t="s">
         <v>23</v>
       </c>
@@ -6327,7 +6336,7 @@
       </c>
       <c r="L328" s="3"/>
     </row>
-    <row r="329" spans="1:12" ht="30">
+    <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F329" s="10" t="s">
         <v>202</v>
       </c>
@@ -6336,7 +6345,7 @@
       </c>
       <c r="L329" s="3"/>
     </row>
-    <row r="330" spans="1:12" ht="150">
+    <row r="330" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F330" s="10" t="s">
         <v>203</v>
       </c>
@@ -6345,7 +6354,7 @@
       </c>
       <c r="L330" s="3"/>
     </row>
-    <row r="331" spans="1:12" ht="30">
+    <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F331" s="10" t="s">
         <v>212</v>
       </c>
@@ -6354,15 +6363,15 @@
       </c>
       <c r="L331" s="3"/>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C332"/>
       <c r="D332" s="13"/>
       <c r="L332" s="3"/>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L333" s="3"/>
     </row>
-    <row r="334" spans="1:12" ht="45">
+    <row r="334" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
         <v>214</v>
       </c>
@@ -6377,7 +6386,7 @@
       </c>
       <c r="L334" s="3"/>
     </row>
-    <row r="335" spans="1:12" ht="30">
+    <row r="335" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F335" s="10" t="s">
         <v>22</v>
       </c>
@@ -6386,7 +6395,7 @@
       </c>
       <c r="L335" s="3"/>
     </row>
-    <row r="336" spans="1:12" ht="30">
+    <row r="336" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F336" s="10" t="s">
         <v>23</v>
       </c>
@@ -6395,7 +6404,7 @@
       </c>
       <c r="L336" s="3"/>
     </row>
-    <row r="337" spans="1:12" ht="30">
+    <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F337" s="10" t="s">
         <v>219</v>
       </c>
@@ -6404,7 +6413,7 @@
       </c>
       <c r="L337" s="3"/>
     </row>
-    <row r="338" spans="1:12" ht="150">
+    <row r="338" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F338" s="10" t="s">
         <v>203</v>
       </c>
@@ -6413,13 +6422,13 @@
       </c>
       <c r="L338" s="3"/>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L339" s="3"/>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L340" s="3"/>
     </row>
-    <row r="341" spans="1:12" ht="45">
+    <row r="341" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
         <v>220</v>
       </c>
@@ -6434,7 +6443,7 @@
       </c>
       <c r="L341" s="3"/>
     </row>
-    <row r="342" spans="1:12" ht="30">
+    <row r="342" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F342" s="10" t="s">
         <v>22</v>
       </c>
@@ -6443,7 +6452,7 @@
       </c>
       <c r="L342" s="3"/>
     </row>
-    <row r="343" spans="1:12" ht="30">
+    <row r="343" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F343" s="10" t="s">
         <v>23</v>
       </c>
@@ -6452,7 +6461,7 @@
       </c>
       <c r="L343" s="3"/>
     </row>
-    <row r="344" spans="1:12" ht="30">
+    <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F344" s="10" t="s">
         <v>219</v>
       </c>
@@ -6461,7 +6470,7 @@
       </c>
       <c r="L344" s="3"/>
     </row>
-    <row r="345" spans="1:12" ht="150">
+    <row r="345" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F345" s="10" t="s">
         <v>203</v>
       </c>
@@ -6470,7 +6479,7 @@
       </c>
       <c r="L345" s="3"/>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F346" s="10" t="s">
         <v>206</v>
       </c>
@@ -6479,12 +6488,12 @@
       </c>
       <c r="L346" s="3"/>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C347"/>
       <c r="D347" s="13"/>
       <c r="L347" s="3"/>
     </row>
-    <row r="348" spans="1:12" ht="45">
+    <row r="348" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
         <v>221</v>
       </c>
@@ -6499,7 +6508,7 @@
       </c>
       <c r="L348" s="3"/>
     </row>
-    <row r="349" spans="1:12" ht="30">
+    <row r="349" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F349" s="10" t="s">
         <v>22</v>
       </c>
@@ -6508,7 +6517,7 @@
       </c>
       <c r="L349" s="3"/>
     </row>
-    <row r="350" spans="1:12" ht="30">
+    <row r="350" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F350" s="10" t="s">
         <v>23</v>
       </c>
@@ -6517,7 +6526,7 @@
       </c>
       <c r="L350" s="3"/>
     </row>
-    <row r="351" spans="1:12" ht="30">
+    <row r="351" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F351" s="10" t="s">
         <v>218</v>
       </c>
@@ -6526,7 +6535,7 @@
       </c>
       <c r="L351" s="3"/>
     </row>
-    <row r="352" spans="1:12" ht="150">
+    <row r="352" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F352" s="10" t="s">
         <v>203</v>
       </c>
@@ -6535,7 +6544,7 @@
       </c>
       <c r="L352" s="3"/>
     </row>
-    <row r="353" spans="1:13" ht="30">
+    <row r="353" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F353" s="10" t="s">
         <v>212</v>
       </c>
@@ -6544,16 +6553,16 @@
       </c>
       <c r="L353" s="3"/>
     </row>
-    <row r="354" spans="1:13">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L354" s="3"/>
     </row>
-    <row r="355" spans="1:13">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L355" s="3"/>
     </row>
-    <row r="356" spans="1:13">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L356" s="3"/>
     </row>
-    <row r="357" spans="1:13" ht="45">
+    <row r="357" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
         <v>226</v>
       </c>
@@ -6580,7 +6589,7 @@
       </c>
       <c r="M357"/>
     </row>
-    <row r="358" spans="1:13" ht="30">
+    <row r="358" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F358" s="10" t="s">
         <v>22</v>
       </c>
@@ -6589,7 +6598,7 @@
       </c>
       <c r="L358" s="3"/>
     </row>
-    <row r="359" spans="1:13" ht="30">
+    <row r="359" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F359" s="10" t="s">
         <v>23</v>
       </c>
@@ -6598,7 +6607,7 @@
       </c>
       <c r="L359" s="3"/>
     </row>
-    <row r="360" spans="1:13" ht="30">
+    <row r="360" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F360" s="10" t="s">
         <v>223</v>
       </c>
@@ -6607,7 +6616,7 @@
       </c>
       <c r="L360" s="3"/>
     </row>
-    <row r="361" spans="1:13" ht="150">
+    <row r="361" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="F361" s="10" t="s">
         <v>203</v>
       </c>
@@ -6616,13 +6625,13 @@
       </c>
       <c r="L361" s="3"/>
     </row>
-    <row r="362" spans="1:13">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L362" s="3"/>
     </row>
-    <row r="363" spans="1:13">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L363" s="3"/>
     </row>
-    <row r="364" spans="1:13" ht="45">
+    <row r="364" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
         <v>227</v>
       </c>
@@ -6648,7 +6657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="30">
+    <row r="365" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F365" s="10" t="s">
         <v>22</v>
       </c>
@@ -6657,7 +6666,7 @@
       </c>
       <c r="L365" s="3"/>
     </row>
-    <row r="366" spans="1:13" ht="30">
+    <row r="366" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F366" s="10" t="s">
         <v>23</v>
       </c>
@@ -6666,7 +6675,7 @@
       </c>
       <c r="L366" s="3"/>
     </row>
-    <row r="367" spans="1:13" ht="30">
+    <row r="367" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F367" s="10" t="s">
         <v>225</v>
       </c>
@@ -6675,7 +6684,7 @@
       </c>
       <c r="L367" s="3"/>
     </row>
-    <row r="368" spans="1:13" ht="150">
+    <row r="368" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="F368" s="10" t="s">
         <v>203</v>
       </c>
@@ -6684,7 +6693,7 @@
       </c>
       <c r="L368" s="3"/>
     </row>
-    <row r="369" spans="1:13">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F369" s="10" t="s">
         <v>206</v>
       </c>
@@ -6693,12 +6702,12 @@
       </c>
       <c r="L369" s="3"/>
     </row>
-    <row r="370" spans="1:13">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C370"/>
       <c r="D370" s="13"/>
       <c r="L370" s="3"/>
     </row>
-    <row r="371" spans="1:13" ht="45">
+    <row r="371" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
         <v>228</v>
       </c>
@@ -6724,7 +6733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="30">
+    <row r="372" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F372" s="10" t="s">
         <v>22</v>
       </c>
@@ -6733,7 +6742,7 @@
       </c>
       <c r="L372" s="3"/>
     </row>
-    <row r="373" spans="1:13" ht="30">
+    <row r="373" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F373" s="10" t="s">
         <v>23</v>
       </c>
@@ -6742,7 +6751,7 @@
       </c>
       <c r="L373" s="3"/>
     </row>
-    <row r="374" spans="1:13" ht="30">
+    <row r="374" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F374" s="10" t="s">
         <v>225</v>
       </c>
@@ -6751,7 +6760,7 @@
       </c>
       <c r="L374" s="3"/>
     </row>
-    <row r="375" spans="1:13" ht="150">
+    <row r="375" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="F375" s="10" t="s">
         <v>203</v>
       </c>
@@ -6760,7 +6769,7 @@
       </c>
       <c r="L375" s="3"/>
     </row>
-    <row r="376" spans="1:13" ht="30">
+    <row r="376" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F376" s="10" t="s">
         <v>212</v>
       </c>
@@ -6769,10 +6778,10 @@
       </c>
       <c r="L376" s="3"/>
     </row>
-    <row r="377" spans="1:13">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L377" s="3"/>
     </row>
-    <row r="378" spans="1:13" ht="45">
+    <row r="378" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
         <v>236</v>
       </c>
@@ -6798,7 +6807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="45">
+    <row r="379" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F379" s="10" t="s">
         <v>564</v>
       </c>
@@ -6807,7 +6816,7 @@
       </c>
       <c r="L379" s="3"/>
     </row>
-    <row r="380" spans="1:13" ht="30">
+    <row r="380" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F380" s="13" t="s">
         <v>231</v>
       </c>
@@ -6816,7 +6825,7 @@
       </c>
       <c r="L380" s="3"/>
     </row>
-    <row r="381" spans="1:13" ht="30">
+    <row r="381" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F381" s="13" t="s">
         <v>233</v>
       </c>
@@ -6825,13 +6834,13 @@
       </c>
       <c r="L381" s="3"/>
     </row>
-    <row r="382" spans="1:13">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L382" s="3"/>
     </row>
-    <row r="383" spans="1:13">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L383" s="3"/>
     </row>
-    <row r="384" spans="1:13" ht="45">
+    <row r="384" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
         <v>238</v>
       </c>
@@ -6857,7 +6866,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="30">
+    <row r="385" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F385" s="10" t="s">
         <v>22</v>
       </c>
@@ -6866,7 +6875,7 @@
       </c>
       <c r="L385" s="3"/>
     </row>
-    <row r="386" spans="1:12" ht="30">
+    <row r="386" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F386" s="13" t="s">
         <v>239</v>
       </c>
@@ -6875,7 +6884,7 @@
       </c>
       <c r="L386" s="3"/>
     </row>
-    <row r="387" spans="1:12" ht="45">
+    <row r="387" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F387" s="13" t="s">
         <v>241</v>
       </c>
@@ -6884,7 +6893,7 @@
       </c>
       <c r="L387" s="3"/>
     </row>
-    <row r="388" spans="1:12" ht="195">
+    <row r="388" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="F388" s="13" t="s">
         <v>243</v>
       </c>
@@ -6893,7 +6902,7 @@
       </c>
       <c r="L388" s="3"/>
     </row>
-    <row r="389" spans="1:12" ht="30">
+    <row r="389" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F389" s="13" t="s">
         <v>245</v>
       </c>
@@ -6902,7 +6911,7 @@
       </c>
       <c r="L389" s="3"/>
     </row>
-    <row r="390" spans="1:12" ht="30">
+    <row r="390" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F390" s="13" t="s">
         <v>247</v>
       </c>
@@ -6911,13 +6920,13 @@
       </c>
       <c r="L390" s="3"/>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L391" s="3"/>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L392" s="3"/>
     </row>
-    <row r="393" spans="1:12" ht="45">
+    <row r="393" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
         <v>249</v>
       </c>
@@ -6943,7 +6952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:12" ht="30">
+    <row r="394" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F394" s="10" t="s">
         <v>22</v>
       </c>
@@ -6952,7 +6961,7 @@
       </c>
       <c r="L394" s="3"/>
     </row>
-    <row r="395" spans="1:12" ht="30">
+    <row r="395" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F395" s="13" t="s">
         <v>239</v>
       </c>
@@ -6961,7 +6970,7 @@
       </c>
       <c r="L395" s="3"/>
     </row>
-    <row r="396" spans="1:12" ht="45">
+    <row r="396" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F396" s="13" t="s">
         <v>321</v>
       </c>
@@ -6970,7 +6979,7 @@
       </c>
       <c r="L396" s="3"/>
     </row>
-    <row r="397" spans="1:12" ht="225">
+    <row r="397" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="F397" s="13" t="s">
         <v>323</v>
       </c>
@@ -6979,7 +6988,7 @@
       </c>
       <c r="L397" s="3"/>
     </row>
-    <row r="398" spans="1:12" ht="30">
+    <row r="398" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F398" s="13" t="s">
         <v>325</v>
       </c>
@@ -6988,15 +6997,15 @@
       </c>
       <c r="L398" s="3"/>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F399" s="13"/>
       <c r="G399" s="13"/>
       <c r="L399" s="3"/>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L400" s="3"/>
     </row>
-    <row r="401" spans="1:12" ht="45">
+    <row r="401" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
         <v>362</v>
       </c>
@@ -7022,7 +7031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:12" ht="30">
+    <row r="402" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F402" s="10" t="s">
         <v>22</v>
       </c>
@@ -7031,7 +7040,7 @@
       </c>
       <c r="L402" s="3"/>
     </row>
-    <row r="403" spans="1:12" ht="30">
+    <row r="403" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F403" s="13" t="s">
         <v>239</v>
       </c>
@@ -7040,7 +7049,7 @@
       </c>
       <c r="L403" s="3"/>
     </row>
-    <row r="404" spans="1:12" ht="30">
+    <row r="404" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F404" s="13" t="s">
         <v>328</v>
       </c>
@@ -7049,21 +7058,21 @@
       </c>
       <c r="L404" s="3"/>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F405" s="13"/>
       <c r="G405" s="13"/>
       <c r="L405" s="3"/>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L406" s="3"/>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L407" s="3"/>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L408" s="3"/>
     </row>
-    <row r="409" spans="1:12" ht="45">
+    <row r="409" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
         <v>363</v>
       </c>
@@ -7086,7 +7095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:12" ht="30">
+    <row r="410" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F410" s="10" t="s">
         <v>22</v>
       </c>
@@ -7095,7 +7104,7 @@
       </c>
       <c r="L410" s="3"/>
     </row>
-    <row r="411" spans="1:12" ht="30">
+    <row r="411" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F411" s="13" t="s">
         <v>239</v>
       </c>
@@ -7104,7 +7113,7 @@
       </c>
       <c r="L411" s="3"/>
     </row>
-    <row r="412" spans="1:12" ht="45">
+    <row r="412" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F412" s="13" t="s">
         <v>321</v>
       </c>
@@ -7113,7 +7122,7 @@
       </c>
       <c r="L412" s="3"/>
     </row>
-    <row r="413" spans="1:12" ht="30">
+    <row r="413" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F413" s="13" t="s">
         <v>328</v>
       </c>
@@ -7122,7 +7131,7 @@
       </c>
       <c r="L413" s="3"/>
     </row>
-    <row r="414" spans="1:12" ht="30">
+    <row r="414" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F414" s="13" t="s">
         <v>329</v>
       </c>
@@ -7131,13 +7140,13 @@
       </c>
       <c r="L414" s="3"/>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L415" s="3"/>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L416" s="3"/>
     </row>
-    <row r="417" spans="1:12" ht="45">
+    <row r="417" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
         <v>364</v>
       </c>
@@ -7157,7 +7166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:12" ht="30">
+    <row r="418" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F418" s="10" t="s">
         <v>22</v>
       </c>
@@ -7166,7 +7175,7 @@
       </c>
       <c r="L418" s="3"/>
     </row>
-    <row r="419" spans="1:12" ht="30">
+    <row r="419" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F419" s="13" t="s">
         <v>239</v>
       </c>
@@ -7175,7 +7184,7 @@
       </c>
       <c r="L419" s="3"/>
     </row>
-    <row r="420" spans="1:12" ht="45">
+    <row r="420" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F420" s="13" t="s">
         <v>321</v>
       </c>
@@ -7184,7 +7193,7 @@
       </c>
       <c r="L420" s="3"/>
     </row>
-    <row r="421" spans="1:12" ht="30">
+    <row r="421" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F421" s="13" t="s">
         <v>328</v>
       </c>
@@ -7193,7 +7202,7 @@
       </c>
       <c r="L421" s="3"/>
     </row>
-    <row r="422" spans="1:12" ht="30">
+    <row r="422" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F422" s="13" t="s">
         <v>332</v>
       </c>
@@ -7202,10 +7211,10 @@
       </c>
       <c r="L422" s="3"/>
     </row>
-    <row r="423" spans="1:12">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L423" s="3"/>
     </row>
-    <row r="424" spans="1:12" ht="45">
+    <row r="424" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
         <v>365</v>
       </c>
@@ -7225,7 +7234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:12" ht="30">
+    <row r="425" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F425" s="10" t="s">
         <v>22</v>
       </c>
@@ -7234,7 +7243,7 @@
       </c>
       <c r="L425" s="3"/>
     </row>
-    <row r="426" spans="1:12" ht="30">
+    <row r="426" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F426" s="13" t="s">
         <v>239</v>
       </c>
@@ -7243,7 +7252,7 @@
       </c>
       <c r="L426" s="3"/>
     </row>
-    <row r="427" spans="1:12" ht="45">
+    <row r="427" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F427" s="13" t="s">
         <v>321</v>
       </c>
@@ -7252,7 +7261,7 @@
       </c>
       <c r="L427" s="3"/>
     </row>
-    <row r="428" spans="1:12" ht="30">
+    <row r="428" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F428" s="13" t="s">
         <v>335</v>
       </c>
@@ -7261,7 +7270,7 @@
       </c>
       <c r="L428" s="3"/>
     </row>
-    <row r="429" spans="1:12" ht="30">
+    <row r="429" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F429" s="13" t="s">
         <v>336</v>
       </c>
@@ -7270,20 +7279,20 @@
       </c>
       <c r="L429" s="3"/>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F430"/>
       <c r="G430"/>
       <c r="L430" s="3"/>
     </row>
-    <row r="431" spans="1:12">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F431"/>
       <c r="G431"/>
       <c r="L431" s="3"/>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L432" s="3"/>
     </row>
-    <row r="433" spans="1:12" ht="45">
+    <row r="433" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
         <v>366</v>
       </c>
@@ -7306,7 +7315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:12" ht="30">
+    <row r="434" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F434" s="10" t="s">
         <v>22</v>
       </c>
@@ -7315,7 +7324,7 @@
       </c>
       <c r="L434" s="3"/>
     </row>
-    <row r="435" spans="1:12" ht="30">
+    <row r="435" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F435" s="13" t="s">
         <v>239</v>
       </c>
@@ -7324,7 +7333,7 @@
       </c>
       <c r="L435" s="3"/>
     </row>
-    <row r="436" spans="1:12" ht="45">
+    <row r="436" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F436" s="13" t="s">
         <v>339</v>
       </c>
@@ -7333,7 +7342,7 @@
       </c>
       <c r="L436" s="3"/>
     </row>
-    <row r="437" spans="1:12" ht="210">
+    <row r="437" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="F437" s="13" t="s">
         <v>341</v>
       </c>
@@ -7342,10 +7351,10 @@
       </c>
       <c r="L437" s="3"/>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L438" s="3"/>
     </row>
-    <row r="439" spans="1:12" ht="45">
+    <row r="439" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
         <v>367</v>
       </c>
@@ -7365,7 +7374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:12" ht="30">
+    <row r="440" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F440" s="10" t="s">
         <v>22</v>
       </c>
@@ -7374,7 +7383,7 @@
       </c>
       <c r="L440" s="3"/>
     </row>
-    <row r="441" spans="1:12" ht="30">
+    <row r="441" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F441" s="13" t="s">
         <v>239</v>
       </c>
@@ -7383,7 +7392,7 @@
       </c>
       <c r="L441" s="3"/>
     </row>
-    <row r="442" spans="1:12" ht="45">
+    <row r="442" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F442" s="13" t="s">
         <v>344</v>
       </c>
@@ -7392,7 +7401,7 @@
       </c>
       <c r="L442" s="3"/>
     </row>
-    <row r="443" spans="1:12" ht="30">
+    <row r="443" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F443" s="13" t="s">
         <v>335</v>
       </c>
@@ -7401,7 +7410,7 @@
       </c>
       <c r="L443" s="3"/>
     </row>
-    <row r="444" spans="1:12" ht="30">
+    <row r="444" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F444" s="13" t="s">
         <v>329</v>
       </c>
@@ -7410,13 +7419,13 @@
       </c>
       <c r="L444" s="3"/>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L445" s="3"/>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L446" s="3"/>
     </row>
-    <row r="447" spans="1:12" ht="45">
+    <row r="447" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
         <v>368</v>
       </c>
@@ -7436,7 +7445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:12" ht="30">
+    <row r="448" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F448" s="10" t="s">
         <v>22</v>
       </c>
@@ -7445,7 +7454,7 @@
       </c>
       <c r="L448" s="3"/>
     </row>
-    <row r="449" spans="1:13" ht="30">
+    <row r="449" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F449" s="13" t="s">
         <v>239</v>
       </c>
@@ -7454,7 +7463,7 @@
       </c>
       <c r="L449" s="3"/>
     </row>
-    <row r="450" spans="1:13" ht="45">
+    <row r="450" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F450" s="13" t="s">
         <v>347</v>
       </c>
@@ -7463,7 +7472,7 @@
       </c>
       <c r="L450" s="3"/>
     </row>
-    <row r="451" spans="1:13" ht="30">
+    <row r="451" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F451" s="13" t="s">
         <v>335</v>
       </c>
@@ -7472,7 +7481,7 @@
       </c>
       <c r="L451" s="3"/>
     </row>
-    <row r="452" spans="1:13" ht="30">
+    <row r="452" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F452" s="13" t="s">
         <v>336</v>
       </c>
@@ -7481,16 +7490,16 @@
       </c>
       <c r="L452" s="3"/>
     </row>
-    <row r="453" spans="1:13">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L453" s="3"/>
     </row>
-    <row r="454" spans="1:13">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L454" s="3"/>
     </row>
-    <row r="455" spans="1:13">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L455" s="3"/>
     </row>
-    <row r="456" spans="1:13" ht="45">
+    <row r="456" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
         <v>370</v>
       </c>
@@ -7510,7 +7519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:13" ht="30">
+    <row r="457" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F457" s="10" t="s">
         <v>22</v>
       </c>
@@ -7519,7 +7528,7 @@
       </c>
       <c r="L457" s="3"/>
     </row>
-    <row r="458" spans="1:13" ht="30">
+    <row r="458" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F458" s="13" t="s">
         <v>239</v>
       </c>
@@ -7528,7 +7537,7 @@
       </c>
       <c r="L458" s="3"/>
     </row>
-    <row r="459" spans="1:13" ht="45">
+    <row r="459" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F459" s="13" t="s">
         <v>347</v>
       </c>
@@ -7537,7 +7546,7 @@
       </c>
       <c r="L459" s="3"/>
     </row>
-    <row r="460" spans="1:13" ht="30">
+    <row r="460" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F460" s="13" t="s">
         <v>335</v>
       </c>
@@ -7546,7 +7555,7 @@
       </c>
       <c r="L460" s="3"/>
     </row>
-    <row r="461" spans="1:13" ht="30">
+    <row r="461" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F461" s="13" t="s">
         <v>332</v>
       </c>
@@ -7555,13 +7564,13 @@
       </c>
       <c r="L461" s="3"/>
     </row>
-    <row r="462" spans="1:13">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L462" s="3"/>
     </row>
-    <row r="463" spans="1:13">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L463" s="3"/>
     </row>
-    <row r="464" spans="1:13" ht="45">
+    <row r="464" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
         <v>371</v>
       </c>
@@ -7584,7 +7593,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="465" spans="1:12" ht="30">
+    <row r="465" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F465" s="10" t="s">
         <v>22</v>
       </c>
@@ -7593,7 +7602,7 @@
       </c>
       <c r="L465" s="3"/>
     </row>
-    <row r="466" spans="1:12" ht="30">
+    <row r="466" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F466" s="13" t="s">
         <v>239</v>
       </c>
@@ -7602,7 +7611,7 @@
       </c>
       <c r="L466" s="3"/>
     </row>
-    <row r="467" spans="1:12" ht="45">
+    <row r="467" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F467" s="13" t="s">
         <v>350</v>
       </c>
@@ -7611,7 +7620,7 @@
       </c>
       <c r="L467" s="3"/>
     </row>
-    <row r="468" spans="1:12" ht="45">
+    <row r="468" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F468" s="13" t="s">
         <v>369</v>
       </c>
@@ -7620,15 +7629,15 @@
       </c>
       <c r="L468" s="3"/>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F469" s="13"/>
       <c r="G469" s="13"/>
       <c r="L469" s="3"/>
     </row>
-    <row r="470" spans="1:12">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L470" s="3"/>
     </row>
-    <row r="471" spans="1:12" ht="45">
+    <row r="471" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A471" s="10" t="s">
         <v>373</v>
       </c>
@@ -7648,7 +7657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="30">
+    <row r="472" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F472" s="10" t="s">
         <v>22</v>
       </c>
@@ -7657,7 +7666,7 @@
       </c>
       <c r="L472" s="3"/>
     </row>
-    <row r="473" spans="1:12" ht="30">
+    <row r="473" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F473" s="13" t="s">
         <v>239</v>
       </c>
@@ -7666,7 +7675,7 @@
       </c>
       <c r="L473" s="3"/>
     </row>
-    <row r="474" spans="1:12" ht="30">
+    <row r="474" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F474" s="13" t="s">
         <v>353</v>
       </c>
@@ -7676,7 +7685,7 @@
       <c r="K474" s="3"/>
       <c r="L474" s="3"/>
     </row>
-    <row r="475" spans="1:12" ht="135">
+    <row r="475" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="F475" s="13" t="s">
         <v>574</v>
       </c>
@@ -7686,15 +7695,15 @@
       <c r="K475" s="3"/>
       <c r="L475" s="3"/>
     </row>
-    <row r="476" spans="1:12">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K476" s="3"/>
       <c r="L476" s="3"/>
     </row>
-    <row r="477" spans="1:12">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K477" s="3"/>
       <c r="L477" s="3"/>
     </row>
-    <row r="478" spans="1:12" ht="45">
+    <row r="478" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
         <v>377</v>
       </c>
@@ -7715,7 +7724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:12" ht="30">
+    <row r="479" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F479" s="13" t="s">
         <v>239</v>
       </c>
@@ -7725,7 +7734,7 @@
       <c r="K479" s="3"/>
       <c r="L479" s="3"/>
     </row>
-    <row r="480" spans="1:12" ht="45">
+    <row r="480" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F480" s="13" t="s">
         <v>358</v>
       </c>
@@ -7735,7 +7744,7 @@
       <c r="K480" s="3"/>
       <c r="L480" s="3"/>
     </row>
-    <row r="481" spans="1:12" ht="30">
+    <row r="481" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F481" s="13" t="s">
         <v>372</v>
       </c>
@@ -7745,17 +7754,17 @@
       <c r="K481" s="3"/>
       <c r="L481" s="3"/>
     </row>
-    <row r="482" spans="1:12">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F482"/>
       <c r="G482"/>
       <c r="K482" s="3"/>
       <c r="L482" s="3"/>
     </row>
-    <row r="483" spans="1:12">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K483" s="3"/>
       <c r="L483" s="3"/>
     </row>
-    <row r="484" spans="1:12" ht="45">
+    <row r="484" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
         <v>385</v>
       </c>
@@ -7776,7 +7785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:12" ht="30">
+    <row r="485" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F485" s="13" t="s">
         <v>239</v>
       </c>
@@ -7786,7 +7795,7 @@
       <c r="K485" s="3"/>
       <c r="L485" s="3"/>
     </row>
-    <row r="486" spans="1:12" ht="60">
+    <row r="486" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F486" s="13" t="s">
         <v>374</v>
       </c>
@@ -7796,43 +7805,43 @@
       <c r="K486" s="3"/>
       <c r="L486" s="3"/>
     </row>
-    <row r="487" spans="1:12">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F487" s="13"/>
       <c r="G487" s="13"/>
       <c r="K487" s="3"/>
       <c r="L487" s="3"/>
     </row>
-    <row r="488" spans="1:12">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K488" s="3"/>
       <c r="L488" s="3"/>
     </row>
-    <row r="489" spans="1:12" s="24" customFormat="1" ht="45">
-      <c r="A489" s="22" t="s">
+    <row r="489" spans="1:12" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A489" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="B489" s="22"/>
-      <c r="C489" s="24" t="s">
+      <c r="B489" s="20"/>
+      <c r="C489" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D489" s="23" t="s">
+      <c r="D489" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="E489" s="22"/>
-      <c r="F489" s="22" t="s">
+      <c r="E489" s="20"/>
+      <c r="F489" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G489" s="22"/>
-      <c r="H489" s="22" t="s">
+      <c r="G489" s="20"/>
+      <c r="H489" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="I489" s="22"/>
-      <c r="J489" s="22" t="s">
+      <c r="I489" s="20"/>
+      <c r="J489" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="K489" s="25"/>
-      <c r="L489" s="25"/>
-    </row>
-    <row r="490" spans="1:12" ht="30">
+      <c r="K489" s="23"/>
+      <c r="L489" s="23"/>
+    </row>
+    <row r="490" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F490" s="13" t="s">
         <v>239</v>
       </c>
@@ -7842,7 +7851,7 @@
       <c r="K490" s="3"/>
       <c r="L490" s="3"/>
     </row>
-    <row r="491" spans="1:12" ht="45">
+    <row r="491" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F491" s="13" t="s">
         <v>380</v>
       </c>
@@ -7850,7 +7859,7 @@
       <c r="K491" s="3"/>
       <c r="L491" s="3"/>
     </row>
-    <row r="492" spans="1:12" ht="60">
+    <row r="492" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F492" s="10" t="s">
         <v>381</v>
       </c>
@@ -7860,7 +7869,7 @@
       <c r="K492" s="3"/>
       <c r="L492" s="3"/>
     </row>
-    <row r="493" spans="1:12">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F493" s="10" t="s">
         <v>383</v>
       </c>
@@ -7870,15 +7879,15 @@
       <c r="K493" s="3"/>
       <c r="L493" s="3"/>
     </row>
-    <row r="494" spans="1:12">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K494" s="3"/>
       <c r="L494" s="3"/>
     </row>
-    <row r="495" spans="1:12">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K495" s="3"/>
       <c r="L495" s="3"/>
     </row>
-    <row r="496" spans="1:12" ht="45">
+    <row r="496" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
         <v>504</v>
       </c>
@@ -7899,7 +7908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="497" spans="1:13" ht="30">
+    <row r="497" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F497" s="13" t="s">
         <v>239</v>
       </c>
@@ -7909,7 +7918,7 @@
       <c r="K497" s="3"/>
       <c r="L497" s="3"/>
     </row>
-    <row r="498" spans="1:13" ht="45">
+    <row r="498" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F498" s="13" t="s">
         <v>386</v>
       </c>
@@ -7919,7 +7928,7 @@
       <c r="K498" s="3"/>
       <c r="L498" s="3"/>
     </row>
-    <row r="499" spans="1:13" ht="45">
+    <row r="499" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F499" s="10" t="s">
         <v>391</v>
       </c>
@@ -7929,7 +7938,7 @@
       <c r="K499" s="3"/>
       <c r="L499" s="3"/>
     </row>
-    <row r="500" spans="1:13" ht="30">
+    <row r="500" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F500" s="10" t="s">
         <v>393</v>
       </c>
@@ -7939,7 +7948,7 @@
       <c r="K500" s="3"/>
       <c r="L500" s="3"/>
     </row>
-    <row r="501" spans="1:13" ht="30">
+    <row r="501" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F501" s="10" t="s">
         <v>395</v>
       </c>
@@ -7949,11 +7958,11 @@
       <c r="K501" s="3"/>
       <c r="L501" s="3"/>
     </row>
-    <row r="502" spans="1:13">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K502" s="3"/>
       <c r="L502" s="3"/>
     </row>
-    <row r="503" spans="1:13" ht="45">
+    <row r="503" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A503" s="10" t="s">
         <v>416</v>
       </c>
@@ -7979,7 +7988,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="504" spans="1:13" ht="30">
+    <row r="504" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F504" s="13" t="s">
         <v>239</v>
       </c>
@@ -7989,7 +7998,7 @@
       <c r="K504" s="3"/>
       <c r="L504" s="3"/>
     </row>
-    <row r="505" spans="1:13" ht="45">
+    <row r="505" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F505" s="13" t="s">
         <v>386</v>
       </c>
@@ -7999,7 +8008,7 @@
       <c r="K505" s="3"/>
       <c r="L505" s="3"/>
     </row>
-    <row r="506" spans="1:13" ht="30">
+    <row r="506" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F506" s="10" t="s">
         <v>393</v>
       </c>
@@ -8009,7 +8018,7 @@
       <c r="K506" s="3"/>
       <c r="L506" s="3"/>
     </row>
-    <row r="507" spans="1:13" ht="30">
+    <row r="507" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F507" s="10" t="s">
         <v>398</v>
       </c>
@@ -8019,7 +8028,7 @@
       <c r="K507" s="3"/>
       <c r="L507" s="3"/>
     </row>
-    <row r="508" spans="1:13" ht="30">
+    <row r="508" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F508" s="10" t="s">
         <v>400</v>
       </c>
@@ -8029,7 +8038,7 @@
       <c r="K508" s="3"/>
       <c r="L508" s="3"/>
     </row>
-    <row r="509" spans="1:13" ht="30">
+    <row r="509" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F509" s="10" t="s">
         <v>402</v>
       </c>
@@ -8039,15 +8048,15 @@
       <c r="K509" s="3"/>
       <c r="L509" s="3"/>
     </row>
-    <row r="510" spans="1:13">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K510" s="3"/>
       <c r="L510" s="3"/>
     </row>
-    <row r="511" spans="1:13">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K511" s="3"/>
       <c r="L511" s="3"/>
     </row>
-    <row r="512" spans="1:13" ht="45">
+    <row r="512" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A512" s="10" t="s">
         <v>421</v>
       </c>
@@ -8068,7 +8077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" spans="1:12" ht="30">
+    <row r="513" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F513" s="13" t="s">
         <v>239</v>
       </c>
@@ -8078,7 +8087,7 @@
       <c r="K513" s="3"/>
       <c r="L513" s="3"/>
     </row>
-    <row r="514" spans="1:12" ht="45">
+    <row r="514" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F514" s="13" t="s">
         <v>386</v>
       </c>
@@ -8088,7 +8097,7 @@
       <c r="K514" s="3"/>
       <c r="L514" s="3"/>
     </row>
-    <row r="515" spans="1:12" ht="30">
+    <row r="515" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F515" s="10" t="s">
         <v>393</v>
       </c>
@@ -8098,7 +8107,7 @@
       <c r="K515" s="3"/>
       <c r="L515" s="3"/>
     </row>
-    <row r="516" spans="1:12" ht="30">
+    <row r="516" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F516" s="10" t="s">
         <v>405</v>
       </c>
@@ -8108,7 +8117,7 @@
       <c r="K516" s="3"/>
       <c r="L516" s="3"/>
     </row>
-    <row r="517" spans="1:12" ht="30">
+    <row r="517" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F517" s="10" t="s">
         <v>407</v>
       </c>
@@ -8118,7 +8127,7 @@
       <c r="K517" s="3"/>
       <c r="L517" s="3"/>
     </row>
-    <row r="518" spans="1:12" ht="30">
+    <row r="518" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F518" s="10" t="s">
         <v>409</v>
       </c>
@@ -8128,7 +8137,7 @@
       <c r="K518" s="3"/>
       <c r="L518" s="3"/>
     </row>
-    <row r="519" spans="1:12" ht="45">
+    <row r="519" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F519" s="10" t="s">
         <v>411</v>
       </c>
@@ -8138,23 +8147,23 @@
       <c r="K519" s="3"/>
       <c r="L519" s="3"/>
     </row>
-    <row r="520" spans="1:12">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K520" s="3"/>
       <c r="L520" s="3"/>
     </row>
-    <row r="521" spans="1:12">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K521" s="3"/>
       <c r="L521" s="3"/>
     </row>
-    <row r="522" spans="1:12">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K522" s="3"/>
       <c r="L522" s="3"/>
     </row>
-    <row r="523" spans="1:12">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K523" s="3"/>
       <c r="L523" s="3"/>
     </row>
-    <row r="524" spans="1:12" ht="45">
+    <row r="524" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A524" s="10" t="s">
         <v>505</v>
       </c>
@@ -8175,7 +8184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" spans="1:12" ht="30">
+    <row r="525" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F525" s="13" t="s">
         <v>239</v>
       </c>
@@ -8185,7 +8194,7 @@
       <c r="K525" s="3"/>
       <c r="L525" s="3"/>
     </row>
-    <row r="526" spans="1:12" ht="45">
+    <row r="526" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F526" s="13" t="s">
         <v>386</v>
       </c>
@@ -8195,7 +8204,7 @@
       <c r="K526" s="3"/>
       <c r="L526" s="3"/>
     </row>
-    <row r="527" spans="1:12" ht="30">
+    <row r="527" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F527" s="10" t="s">
         <v>393</v>
       </c>
@@ -8205,7 +8214,7 @@
       <c r="K527" s="3"/>
       <c r="L527" s="3"/>
     </row>
-    <row r="528" spans="1:12" ht="30">
+    <row r="528" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F528" s="10" t="s">
         <v>414</v>
       </c>
@@ -8215,31 +8224,31 @@
       <c r="K528" s="3"/>
       <c r="L528" s="3"/>
     </row>
-    <row r="529" spans="1:12">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K529" s="3"/>
       <c r="L529" s="3"/>
     </row>
-    <row r="530" spans="1:12">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K530" s="3"/>
       <c r="L530" s="3"/>
     </row>
-    <row r="531" spans="1:12">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K531" s="3"/>
       <c r="L531" s="3"/>
     </row>
-    <row r="532" spans="1:12">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K532" s="3"/>
       <c r="L532" s="3"/>
     </row>
-    <row r="533" spans="1:12">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K533" s="3"/>
       <c r="L533" s="3"/>
     </row>
-    <row r="534" spans="1:12">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K534" s="3"/>
       <c r="L534" s="3"/>
     </row>
-    <row r="535" spans="1:12" ht="45">
+    <row r="535" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A535" s="10" t="s">
         <v>506</v>
       </c>
@@ -8260,7 +8269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:12" ht="30">
+    <row r="536" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F536" s="13" t="s">
         <v>239</v>
       </c>
@@ -8270,7 +8279,7 @@
       <c r="K536" s="3"/>
       <c r="L536" s="3"/>
     </row>
-    <row r="537" spans="1:12" ht="45">
+    <row r="537" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F537" s="13" t="s">
         <v>386</v>
       </c>
@@ -8280,7 +8289,7 @@
       <c r="K537" s="3"/>
       <c r="L537" s="3"/>
     </row>
-    <row r="538" spans="1:12" ht="30">
+    <row r="538" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F538" s="10" t="s">
         <v>393</v>
       </c>
@@ -8290,7 +8299,7 @@
       <c r="K538" s="3"/>
       <c r="L538" s="3"/>
     </row>
-    <row r="539" spans="1:12" ht="30">
+    <row r="539" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F539" s="10" t="s">
         <v>414</v>
       </c>
@@ -8300,7 +8309,7 @@
       <c r="K539" s="3"/>
       <c r="L539" s="3"/>
     </row>
-    <row r="540" spans="1:12" ht="30">
+    <row r="540" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F540" s="10" t="s">
         <v>419</v>
       </c>
@@ -8310,15 +8319,15 @@
       <c r="K540" s="3"/>
       <c r="L540" s="3"/>
     </row>
-    <row r="541" spans="1:12">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K541" s="3"/>
       <c r="L541" s="3"/>
     </row>
-    <row r="542" spans="1:12">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K542" s="3"/>
       <c r="L542" s="3"/>
     </row>
-    <row r="543" spans="1:12" ht="45">
+    <row r="543" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A543" s="10" t="s">
         <v>507</v>
       </c>
@@ -8342,7 +8351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:12" ht="30">
+    <row r="544" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F544" s="13" t="s">
         <v>239</v>
       </c>
@@ -8352,7 +8361,7 @@
       <c r="K544" s="3"/>
       <c r="L544" s="3"/>
     </row>
-    <row r="545" spans="1:12" ht="45">
+    <row r="545" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F545" s="13" t="s">
         <v>422</v>
       </c>
@@ -8362,7 +8371,7 @@
       <c r="K545" s="3"/>
       <c r="L545" s="3"/>
     </row>
-    <row r="546" spans="1:12" ht="120">
+    <row r="546" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F546" s="10" t="s">
         <v>424</v>
       </c>
@@ -8372,15 +8381,15 @@
       <c r="K546" s="3"/>
       <c r="L546" s="3"/>
     </row>
-    <row r="547" spans="1:12">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K547" s="3"/>
       <c r="L547" s="3"/>
     </row>
-    <row r="548" spans="1:12">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K548" s="3"/>
       <c r="L548" s="3"/>
     </row>
-    <row r="549" spans="1:12" ht="45">
+    <row r="549" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A549" s="10" t="s">
         <v>508</v>
       </c>
@@ -8404,7 +8413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:12" ht="30">
+    <row r="550" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F550" s="13" t="s">
         <v>239</v>
       </c>
@@ -8414,7 +8423,7 @@
       <c r="K550" s="3"/>
       <c r="L550" s="3"/>
     </row>
-    <row r="551" spans="1:12" ht="45">
+    <row r="551" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F551" s="13" t="s">
         <v>422</v>
       </c>
@@ -8424,7 +8433,7 @@
       <c r="K551" s="3"/>
       <c r="L551" s="3"/>
     </row>
-    <row r="552" spans="1:12" ht="120">
+    <row r="552" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F552" s="10" t="s">
         <v>438</v>
       </c>
@@ -8434,7 +8443,7 @@
       <c r="K552" s="3"/>
       <c r="L552" s="3"/>
     </row>
-    <row r="553" spans="1:12" ht="30">
+    <row r="553" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F553" s="10" t="s">
         <v>432</v>
       </c>
@@ -8444,7 +8453,7 @@
       <c r="K553" s="3"/>
       <c r="L553" s="3"/>
     </row>
-    <row r="554" spans="1:12" ht="30">
+    <row r="554" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F554" s="10" t="s">
         <v>431</v>
       </c>
@@ -8454,7 +8463,7 @@
       <c r="K554" s="3"/>
       <c r="L554" s="3"/>
     </row>
-    <row r="555" spans="1:12">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F555" s="10" t="s">
         <v>580</v>
       </c>
@@ -8464,12 +8473,12 @@
       <c r="K555" s="3"/>
       <c r="L555" s="3"/>
     </row>
-    <row r="556" spans="1:12">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D556" s="16"/>
       <c r="K556" s="3"/>
       <c r="L556" s="3"/>
     </row>
-    <row r="557" spans="1:12" ht="45">
+    <row r="557" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A557" s="10" t="s">
         <v>509</v>
       </c>
@@ -8493,7 +8502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="558" spans="1:12" ht="30">
+    <row r="558" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F558" s="13" t="s">
         <v>239</v>
       </c>
@@ -8503,7 +8512,7 @@
       <c r="K558" s="3"/>
       <c r="L558" s="3"/>
     </row>
-    <row r="559" spans="1:12" ht="45">
+    <row r="559" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F559" s="13" t="s">
         <v>422</v>
       </c>
@@ -8513,7 +8522,7 @@
       <c r="K559" s="3"/>
       <c r="L559" s="3"/>
     </row>
-    <row r="560" spans="1:12" ht="120">
+    <row r="560" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F560" s="10" t="s">
         <v>437</v>
       </c>
@@ -8523,7 +8532,7 @@
       <c r="K560" s="3"/>
       <c r="L560" s="3"/>
     </row>
-    <row r="561" spans="1:12" ht="30">
+    <row r="561" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F561" s="10" t="s">
         <v>431</v>
       </c>
@@ -8533,7 +8542,7 @@
       <c r="K561" s="3"/>
       <c r="L561" s="3"/>
     </row>
-    <row r="562" spans="1:12" ht="30">
+    <row r="562" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F562" s="10" t="s">
         <v>430</v>
       </c>
@@ -8543,7 +8552,7 @@
       <c r="K562" s="3"/>
       <c r="L562" s="3"/>
     </row>
-    <row r="563" spans="1:12">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F563" s="10" t="s">
         <v>439</v>
       </c>
@@ -8553,37 +8562,37 @@
       <c r="K563" s="3"/>
       <c r="L563" s="3"/>
     </row>
-    <row r="564" spans="1:12">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F564" s="4"/>
       <c r="G564" s="4"/>
       <c r="K564" s="3"/>
       <c r="L564" s="3"/>
     </row>
-    <row r="565" spans="1:12" s="24" customFormat="1" ht="45">
-      <c r="A565" s="22" t="s">
+    <row r="565" spans="1:12" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A565" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="B565" s="22" t="s">
+      <c r="B565" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="C565" s="24" t="s">
+      <c r="C565" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D565" s="23" t="s">
+      <c r="D565" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="E565" s="22"/>
-      <c r="F565" s="22" t="s">
+      <c r="E565" s="20"/>
+      <c r="F565" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G565" s="22"/>
-      <c r="H565" s="22"/>
-      <c r="I565" s="22"/>
-      <c r="J565" s="22"/>
-      <c r="K565" s="25"/>
-      <c r="L565" s="25"/>
-    </row>
-    <row r="566" spans="1:12" ht="30">
+      <c r="G565" s="20"/>
+      <c r="H565" s="20"/>
+      <c r="I565" s="20"/>
+      <c r="J565" s="20"/>
+      <c r="K565" s="23"/>
+      <c r="L565" s="23"/>
+    </row>
+    <row r="566" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F566" s="13" t="s">
         <v>239</v>
       </c>
@@ -8593,7 +8602,7 @@
       <c r="K566" s="3"/>
       <c r="L566" s="3"/>
     </row>
-    <row r="567" spans="1:12" ht="45">
+    <row r="567" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F567" s="13" t="s">
         <v>422</v>
       </c>
@@ -8603,7 +8612,7 @@
       <c r="K567" s="3"/>
       <c r="L567" s="3"/>
     </row>
-    <row r="568" spans="1:12" ht="120">
+    <row r="568" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F568" s="10" t="s">
         <v>436</v>
       </c>
@@ -8613,7 +8622,7 @@
       <c r="K568" s="3"/>
       <c r="L568" s="3"/>
     </row>
-    <row r="569" spans="1:12" ht="30">
+    <row r="569" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F569" s="10" t="s">
         <v>430</v>
       </c>
@@ -8623,7 +8632,7 @@
       <c r="K569" s="3"/>
       <c r="L569" s="3"/>
     </row>
-    <row r="570" spans="1:12">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F570" s="10" t="s">
         <v>439</v>
       </c>
@@ -8633,7 +8642,7 @@
       <c r="K570" s="3"/>
       <c r="L570" s="3"/>
     </row>
-    <row r="571" spans="1:12">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F571" s="10" t="s">
         <v>441</v>
       </c>
@@ -8643,29 +8652,29 @@
       <c r="K571" s="3"/>
       <c r="L571" s="3"/>
     </row>
-    <row r="572" spans="1:12">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K572" s="3"/>
       <c r="L572" s="3"/>
     </row>
-    <row r="573" spans="1:12">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
       <c r="K573" s="3"/>
       <c r="L573" s="3"/>
     </row>
-    <row r="574" spans="1:12">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K574" s="3"/>
       <c r="L574" s="3"/>
     </row>
-    <row r="575" spans="1:12">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K575" s="3"/>
       <c r="L575" s="3"/>
     </row>
-    <row r="576" spans="1:12">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K576" s="3"/>
       <c r="L576" s="3"/>
     </row>
-    <row r="577" spans="1:12" ht="45">
+    <row r="577" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A577" s="10" t="s">
         <v>511</v>
       </c>
@@ -8689,7 +8698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="578" spans="1:12" ht="30">
+    <row r="578" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F578" s="13" t="s">
         <v>239</v>
       </c>
@@ -8699,7 +8708,7 @@
       <c r="K578" s="3"/>
       <c r="L578" s="3"/>
     </row>
-    <row r="579" spans="1:12" ht="45">
+    <row r="579" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F579" s="13" t="s">
         <v>443</v>
       </c>
@@ -8709,7 +8718,7 @@
       <c r="K579" s="3"/>
       <c r="L579" s="3"/>
     </row>
-    <row r="580" spans="1:12" ht="75">
+    <row r="580" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F580" s="10" t="s">
         <v>445</v>
       </c>
@@ -8719,10 +8728,10 @@
       <c r="K580" s="3"/>
       <c r="L580" s="3"/>
     </row>
-    <row r="581" spans="1:12">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K581" s="3"/>
     </row>
-    <row r="582" spans="1:12" ht="45">
+    <row r="582" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A582" s="10" t="s">
         <v>512</v>
       </c>
@@ -8746,7 +8755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="583" spans="1:12" ht="30">
+    <row r="583" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F583" s="13" t="s">
         <v>239</v>
       </c>
@@ -8756,7 +8765,7 @@
       <c r="K583" s="3"/>
       <c r="L583" s="3"/>
     </row>
-    <row r="584" spans="1:12" ht="45">
+    <row r="584" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F584" s="13" t="s">
         <v>443</v>
       </c>
@@ -8766,7 +8775,7 @@
       <c r="K584" s="3"/>
       <c r="L584" s="3"/>
     </row>
-    <row r="585" spans="1:12" ht="75">
+    <row r="585" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F585" s="10" t="s">
         <v>453</v>
       </c>
@@ -8776,19 +8785,19 @@
       <c r="K585" s="3"/>
       <c r="L585" s="3"/>
     </row>
-    <row r="586" spans="1:12">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K586" s="3"/>
       <c r="L586" s="3"/>
     </row>
-    <row r="587" spans="1:12">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K587" s="3"/>
       <c r="L587" s="3"/>
     </row>
-    <row r="588" spans="1:12">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K588" s="3"/>
       <c r="L588" s="3"/>
     </row>
-    <row r="589" spans="1:12" ht="45">
+    <row r="589" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A589" s="10" t="s">
         <v>442</v>
       </c>
@@ -8812,7 +8821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="590" spans="1:12" ht="30">
+    <row r="590" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F590" s="13" t="s">
         <v>239</v>
       </c>
@@ -8822,7 +8831,7 @@
       <c r="K590" s="3"/>
       <c r="L590" s="3"/>
     </row>
-    <row r="591" spans="1:12" ht="45">
+    <row r="591" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F591" s="13" t="s">
         <v>443</v>
       </c>
@@ -8832,7 +8841,7 @@
       <c r="K591" s="3"/>
       <c r="L591" s="3"/>
     </row>
-    <row r="592" spans="1:12" ht="75">
+    <row r="592" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F592" s="10" t="s">
         <v>452</v>
       </c>
@@ -8842,15 +8851,15 @@
       <c r="K592" s="3"/>
       <c r="L592" s="3"/>
     </row>
-    <row r="593" spans="1:12">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K593" s="3"/>
       <c r="L593" s="3"/>
     </row>
-    <row r="594" spans="1:12">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K594" s="3"/>
       <c r="L594" s="3"/>
     </row>
-    <row r="595" spans="1:12" ht="45">
+    <row r="595" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A595" s="10" t="s">
         <v>513</v>
       </c>
@@ -8874,7 +8883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="596" spans="1:12" ht="30">
+    <row r="596" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F596" s="13" t="s">
         <v>239</v>
       </c>
@@ -8884,7 +8893,7 @@
       <c r="K596" s="3"/>
       <c r="L596" s="3"/>
     </row>
-    <row r="597" spans="1:12" ht="45">
+    <row r="597" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F597" s="13" t="s">
         <v>443</v>
       </c>
@@ -8894,7 +8903,7 @@
       <c r="K597" s="3"/>
       <c r="L597" s="3"/>
     </row>
-    <row r="598" spans="1:12" ht="75">
+    <row r="598" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F598" s="10" t="s">
         <v>451</v>
       </c>
@@ -8904,15 +8913,15 @@
       <c r="K598" s="3"/>
       <c r="L598" s="3"/>
     </row>
-    <row r="599" spans="1:12">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K599" s="3"/>
       <c r="L599" s="3"/>
     </row>
-    <row r="600" spans="1:12">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K600" s="3"/>
       <c r="L600" s="3"/>
     </row>
-    <row r="601" spans="1:12" ht="45">
+    <row r="601" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A601" s="10" t="s">
         <v>514</v>
       </c>
@@ -8936,7 +8945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="602" spans="1:12" ht="30">
+    <row r="602" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F602" s="13" t="s">
         <v>239</v>
       </c>
@@ -8946,7 +8955,7 @@
       <c r="K602" s="3"/>
       <c r="L602" s="3"/>
     </row>
-    <row r="603" spans="1:12" ht="45">
+    <row r="603" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F603" s="13" t="s">
         <v>454</v>
       </c>
@@ -8956,7 +8965,7 @@
       <c r="K603" s="3"/>
       <c r="L603" s="3"/>
     </row>
-    <row r="604" spans="1:12" ht="30">
+    <row r="604" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F604" s="10" t="s">
         <v>456</v>
       </c>
@@ -8966,19 +8975,19 @@
       <c r="K604" s="3"/>
       <c r="L604" s="3"/>
     </row>
-    <row r="605" spans="1:12">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K605" s="3"/>
       <c r="L605" s="3"/>
     </row>
-    <row r="606" spans="1:12">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K606" s="3"/>
       <c r="L606" s="3"/>
     </row>
-    <row r="607" spans="1:12">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K607" s="3"/>
       <c r="L607" s="3"/>
     </row>
-    <row r="608" spans="1:12" ht="45">
+    <row r="608" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A608" s="10" t="s">
         <v>515</v>
       </c>
@@ -9002,7 +9011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="609" spans="1:12" ht="30">
+    <row r="609" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F609" s="13" t="s">
         <v>239</v>
       </c>
@@ -9012,7 +9021,7 @@
       <c r="K609" s="3"/>
       <c r="L609" s="3"/>
     </row>
-    <row r="610" spans="1:12" ht="45">
+    <row r="610" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F610" s="13" t="s">
         <v>454</v>
       </c>
@@ -9022,7 +9031,7 @@
       <c r="K610" s="3"/>
       <c r="L610" s="3"/>
     </row>
-    <row r="611" spans="1:12" ht="30">
+    <row r="611" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F611" s="10" t="s">
         <v>460</v>
       </c>
@@ -9035,19 +9044,19 @@
       <c r="K611" s="3"/>
       <c r="L611" s="3"/>
     </row>
-    <row r="612" spans="1:12">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K612" s="3"/>
       <c r="L612" s="3"/>
     </row>
-    <row r="613" spans="1:12">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K613" s="3"/>
       <c r="L613" s="3"/>
     </row>
-    <row r="614" spans="1:12">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K614" s="3"/>
       <c r="L614" s="3"/>
     </row>
-    <row r="615" spans="1:12" ht="45">
+    <row r="615" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A615" s="10" t="s">
         <v>516</v>
       </c>
@@ -9071,7 +9080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="616" spans="1:12" ht="30">
+    <row r="616" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F616" s="13" t="s">
         <v>239</v>
       </c>
@@ -9081,7 +9090,7 @@
       <c r="K616" s="3"/>
       <c r="L616" s="3"/>
     </row>
-    <row r="617" spans="1:12" ht="45">
+    <row r="617" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F617" s="13" t="s">
         <v>462</v>
       </c>
@@ -9091,7 +9100,7 @@
       <c r="K617" s="3"/>
       <c r="L617" s="3"/>
     </row>
-    <row r="618" spans="1:12" ht="240">
+    <row r="618" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F618" s="10" t="s">
         <v>465</v>
       </c>
@@ -9101,15 +9110,15 @@
       <c r="K618" s="3"/>
       <c r="L618" s="3"/>
     </row>
-    <row r="619" spans="1:12">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K619" s="3"/>
       <c r="L619" s="3"/>
     </row>
-    <row r="620" spans="1:12">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K620" s="3"/>
       <c r="L620" s="3"/>
     </row>
-    <row r="621" spans="1:12" ht="45">
+    <row r="621" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A621" s="10" t="s">
         <v>517</v>
       </c>
@@ -9133,7 +9142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="622" spans="1:12" ht="30">
+    <row r="622" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F622" s="13" t="s">
         <v>239</v>
       </c>
@@ -9143,7 +9152,7 @@
       <c r="K622" s="3"/>
       <c r="L622" s="3"/>
     </row>
-    <row r="623" spans="1:12" ht="45">
+    <row r="623" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F623" s="13" t="s">
         <v>462</v>
       </c>
@@ -9153,7 +9162,7 @@
       <c r="K623" s="3"/>
       <c r="L623" s="3"/>
     </row>
-    <row r="624" spans="1:12" ht="240">
+    <row r="624" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F624" s="10" t="s">
         <v>467</v>
       </c>
@@ -9163,19 +9172,19 @@
       <c r="K624" s="3"/>
       <c r="L624" s="3"/>
     </row>
-    <row r="625" spans="1:12">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K625" s="3"/>
       <c r="L625" s="3"/>
     </row>
-    <row r="626" spans="1:12">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K626" s="3"/>
       <c r="L626" s="3"/>
     </row>
-    <row r="627" spans="1:12">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K627" s="3"/>
       <c r="L627" s="3"/>
     </row>
-    <row r="628" spans="1:12" ht="45">
+    <row r="628" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A628" s="10" t="s">
         <v>518</v>
       </c>
@@ -9199,7 +9208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="629" spans="1:12" ht="30">
+    <row r="629" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F629" s="13" t="s">
         <v>239</v>
       </c>
@@ -9209,7 +9218,7 @@
       <c r="K629" s="3"/>
       <c r="L629" s="3"/>
     </row>
-    <row r="630" spans="1:12" ht="45">
+    <row r="630" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F630" s="13" t="s">
         <v>462</v>
       </c>
@@ -9219,7 +9228,7 @@
       <c r="K630" s="3"/>
       <c r="L630" s="3"/>
     </row>
-    <row r="631" spans="1:12" ht="240">
+    <row r="631" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F631" s="10" t="s">
         <v>468</v>
       </c>
@@ -9229,15 +9238,15 @@
       <c r="K631" s="3"/>
       <c r="L631" s="3"/>
     </row>
-    <row r="632" spans="1:12">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K632" s="3"/>
       <c r="L632" s="3"/>
     </row>
-    <row r="633" spans="1:12">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K633" s="3"/>
       <c r="L633" s="3"/>
     </row>
-    <row r="634" spans="1:12" ht="45">
+    <row r="634" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A634" s="10" t="s">
         <v>519</v>
       </c>
@@ -9261,7 +9270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="635" spans="1:12" ht="30">
+    <row r="635" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F635" s="13" t="s">
         <v>239</v>
       </c>
@@ -9271,7 +9280,7 @@
       <c r="K635" s="3"/>
       <c r="L635" s="3"/>
     </row>
-    <row r="636" spans="1:12" ht="45">
+    <row r="636" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F636" s="13" t="s">
         <v>462</v>
       </c>
@@ -9281,7 +9290,7 @@
       <c r="K636" s="3"/>
       <c r="L636" s="3"/>
     </row>
-    <row r="637" spans="1:12" ht="240">
+    <row r="637" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F637" s="10" t="s">
         <v>470</v>
       </c>
@@ -9291,15 +9300,15 @@
       <c r="K637" s="3"/>
       <c r="L637" s="3"/>
     </row>
-    <row r="638" spans="1:12">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K638" s="3"/>
       <c r="L638" s="3"/>
     </row>
-    <row r="639" spans="1:12">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K639" s="3"/>
       <c r="L639" s="3"/>
     </row>
-    <row r="640" spans="1:12" ht="45">
+    <row r="640" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A640" s="10" t="s">
         <v>520</v>
       </c>
@@ -9323,7 +9332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="641" spans="1:12" ht="30">
+    <row r="641" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F641" s="13" t="s">
         <v>239</v>
       </c>
@@ -9333,7 +9342,7 @@
       <c r="K641" s="3"/>
       <c r="L641" s="3"/>
     </row>
-    <row r="642" spans="1:12" ht="45">
+    <row r="642" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F642" s="13" t="s">
         <v>462</v>
       </c>
@@ -9343,7 +9352,7 @@
       <c r="K642" s="3"/>
       <c r="L642" s="3"/>
     </row>
-    <row r="643" spans="1:12" ht="240">
+    <row r="643" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F643" s="10" t="s">
         <v>471</v>
       </c>
@@ -9353,15 +9362,15 @@
       <c r="K643" s="3"/>
       <c r="L643" s="3"/>
     </row>
-    <row r="644" spans="1:12">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K644" s="3"/>
       <c r="L644" s="3"/>
     </row>
-    <row r="645" spans="1:12">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K645" s="3"/>
       <c r="L645" s="3"/>
     </row>
-    <row r="646" spans="1:12" ht="45">
+    <row r="646" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A646" s="10" t="s">
         <v>521</v>
       </c>
@@ -9380,27 +9389,27 @@
       <c r="K646" s="3"/>
       <c r="L646" s="3"/>
     </row>
-    <row r="647" spans="1:12" ht="30">
-      <c r="F647" s="26" t="s">
+    <row r="647" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F647" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="G647" s="26" t="s">
+      <c r="G647" s="24" t="s">
         <v>240</v>
       </c>
       <c r="K647" s="3"/>
       <c r="L647" s="3"/>
     </row>
-    <row r="648" spans="1:12" ht="45">
-      <c r="F648" s="26" t="s">
+    <row r="648" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F648" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="G648" s="26" t="s">
+      <c r="G648" s="24" t="s">
         <v>474</v>
       </c>
       <c r="K648" s="3"/>
       <c r="L648" s="3"/>
     </row>
-    <row r="649" spans="1:12" ht="45">
+    <row r="649" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F649" s="10" t="s">
         <v>583</v>
       </c>
@@ -9410,15 +9419,15 @@
       <c r="K649" s="3"/>
       <c r="L649" s="3"/>
     </row>
-    <row r="650" spans="1:12">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K650" s="3"/>
       <c r="L650" s="3"/>
     </row>
-    <row r="651" spans="1:12">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K651" s="3"/>
       <c r="L651" s="3"/>
     </row>
-    <row r="652" spans="1:12" ht="45">
+    <row r="652" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A652" s="10" t="s">
         <v>522</v>
       </c>
@@ -9442,26 +9451,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="653" spans="1:12" ht="30">
-      <c r="F653" s="26" t="s">
+    <row r="653" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F653" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="G653" s="26" t="s">
+      <c r="G653" s="24" t="s">
         <v>240</v>
       </c>
       <c r="K653" s="3"/>
       <c r="L653" s="3"/>
     </row>
-    <row r="654" spans="1:12" ht="45">
-      <c r="F654" s="26" t="s">
+    <row r="654" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F654" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="G654" s="26" t="s">
+      <c r="G654" s="24" t="s">
         <v>474</v>
       </c>
       <c r="L654" s="3"/>
     </row>
-    <row r="655" spans="1:12" ht="45">
+    <row r="655" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F655" s="10" t="s">
         <v>478</v>
       </c>
@@ -9470,13 +9479,13 @@
       </c>
       <c r="L655" s="3"/>
     </row>
-    <row r="656" spans="1:12">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L656" s="3"/>
     </row>
-    <row r="657" spans="1:12">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L657" s="3"/>
     </row>
-    <row r="658" spans="1:12" ht="45">
+    <row r="658" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A658" s="10" t="s">
         <v>523</v>
       </c>
@@ -9499,7 +9508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="659" spans="1:12" ht="30">
+    <row r="659" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F659" s="13" t="s">
         <v>239</v>
       </c>
@@ -9508,7 +9517,7 @@
       </c>
       <c r="L659" s="3"/>
     </row>
-    <row r="660" spans="1:12" ht="45">
+    <row r="660" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F660" s="13" t="s">
         <v>473</v>
       </c>
@@ -9517,7 +9526,7 @@
       </c>
       <c r="L660" s="3"/>
     </row>
-    <row r="661" spans="1:12" ht="45">
+    <row r="661" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F661" s="10" t="s">
         <v>479</v>
       </c>
@@ -9526,13 +9535,13 @@
       </c>
       <c r="L661" s="3"/>
     </row>
-    <row r="662" spans="1:12">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L662" s="3"/>
     </row>
-    <row r="663" spans="1:12">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L663" s="3"/>
     </row>
-    <row r="664" spans="1:12" ht="45">
+    <row r="664" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A664" s="10" t="s">
         <v>524</v>
       </c>
@@ -9555,7 +9564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="665" spans="1:12" ht="30">
+    <row r="665" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F665" s="13" t="s">
         <v>239</v>
       </c>
@@ -9564,7 +9573,7 @@
       </c>
       <c r="L665" s="3"/>
     </row>
-    <row r="666" spans="1:12" ht="45">
+    <row r="666" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F666" s="13" t="s">
         <v>473</v>
       </c>
@@ -9573,7 +9582,7 @@
       </c>
       <c r="L666" s="3"/>
     </row>
-    <row r="667" spans="1:12" ht="45">
+    <row r="667" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F667" s="10" t="s">
         <v>480</v>
       </c>
@@ -9582,13 +9591,13 @@
       </c>
       <c r="L667" s="3"/>
     </row>
-    <row r="668" spans="1:12">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L668" s="3"/>
     </row>
-    <row r="669" spans="1:12">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L669" s="3"/>
     </row>
-    <row r="670" spans="1:12" ht="45">
+    <row r="670" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A670" s="10" t="s">
         <v>525</v>
       </c>
@@ -9611,7 +9620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="671" spans="1:12" ht="30">
+    <row r="671" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F671" s="13" t="s">
         <v>239</v>
       </c>
@@ -9620,7 +9629,7 @@
       </c>
       <c r="L671" s="3"/>
     </row>
-    <row r="672" spans="1:12" ht="45">
+    <row r="672" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F672" s="13" t="s">
         <v>473</v>
       </c>
@@ -9629,7 +9638,7 @@
       </c>
       <c r="L672" s="3"/>
     </row>
-    <row r="673" spans="1:12" ht="45">
+    <row r="673" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F673" s="10" t="s">
         <v>481</v>
       </c>
@@ -9638,16 +9647,16 @@
       </c>
       <c r="L673" s="3"/>
     </row>
-    <row r="674" spans="1:12">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L674" s="3"/>
     </row>
-    <row r="675" spans="1:12">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L675" s="3"/>
     </row>
-    <row r="676" spans="1:12">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L676" s="3"/>
     </row>
-    <row r="677" spans="1:12" ht="45">
+    <row r="677" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A677" s="10" t="s">
         <v>526</v>
       </c>
@@ -9670,7 +9679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="678" spans="1:12" ht="30">
+    <row r="678" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F678" s="13" t="s">
         <v>239</v>
       </c>
@@ -9679,7 +9688,7 @@
       </c>
       <c r="L678" s="3"/>
     </row>
-    <row r="679" spans="1:12" ht="45">
+    <row r="679" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F679" s="13" t="s">
         <v>483</v>
       </c>
@@ -9688,7 +9697,7 @@
       </c>
       <c r="L679" s="3"/>
     </row>
-    <row r="680" spans="1:12" ht="30">
+    <row r="680" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F680" s="10" t="s">
         <v>486</v>
       </c>
@@ -9697,7 +9706,7 @@
       </c>
       <c r="L680" s="3"/>
     </row>
-    <row r="681" spans="1:12">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H681" s="10" t="s">
         <v>560</v>
       </c>
@@ -9705,7 +9714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="682" spans="1:12" ht="45">
+    <row r="682" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A682" s="10" t="s">
         <v>527</v>
       </c>
@@ -9723,7 +9732,7 @@
       </c>
       <c r="L682" s="3"/>
     </row>
-    <row r="683" spans="1:12" ht="30">
+    <row r="683" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F683" s="13" t="s">
         <v>239</v>
       </c>
@@ -9732,7 +9741,7 @@
       </c>
       <c r="L683" s="3"/>
     </row>
-    <row r="684" spans="1:12" ht="45">
+    <row r="684" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F684" s="13" t="s">
         <v>483</v>
       </c>
@@ -9741,7 +9750,7 @@
       </c>
       <c r="L684" s="3"/>
     </row>
-    <row r="685" spans="1:12" ht="30">
+    <row r="685" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F685" s="10" t="s">
         <v>486</v>
       </c>
@@ -9750,7 +9759,7 @@
       </c>
       <c r="L685" s="3"/>
     </row>
-    <row r="686" spans="1:12" ht="45">
+    <row r="686" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F686" s="10" t="s">
         <v>489</v>
       </c>
@@ -9759,7 +9768,7 @@
       </c>
       <c r="L686" s="3"/>
     </row>
-    <row r="687" spans="1:12" ht="30">
+    <row r="687" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F687" s="10" t="s">
         <v>491</v>
       </c>
@@ -9768,13 +9777,13 @@
       </c>
       <c r="L687" s="3"/>
     </row>
-    <row r="688" spans="1:12">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L688" s="3"/>
     </row>
-    <row r="689" spans="1:12">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L689" s="3"/>
     </row>
-    <row r="690" spans="1:12" ht="45">
+    <row r="690" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A690" s="10" t="s">
         <v>528</v>
       </c>
@@ -9797,7 +9806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="691" spans="1:12" ht="30">
+    <row r="691" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F691" s="13" t="s">
         <v>239</v>
       </c>
@@ -9806,7 +9815,7 @@
       </c>
       <c r="L691" s="3"/>
     </row>
-    <row r="692" spans="1:12" ht="45">
+    <row r="692" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F692" s="13" t="s">
         <v>494</v>
       </c>
@@ -9815,7 +9824,7 @@
       </c>
       <c r="L692" s="3"/>
     </row>
-    <row r="693" spans="1:12" ht="30">
+    <row r="693" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F693" s="10" t="s">
         <v>495</v>
       </c>
@@ -9824,10 +9833,10 @@
       </c>
       <c r="L693" s="3"/>
     </row>
-    <row r="694" spans="1:12">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L694" s="3"/>
     </row>
-    <row r="698" spans="1:12" ht="45">
+    <row r="698" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A698" s="10" t="s">
         <v>529</v>
       </c>
@@ -9844,7 +9853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="699" spans="1:12" ht="30">
+    <row r="699" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F699" s="13" t="s">
         <v>239</v>
       </c>
@@ -9852,7 +9861,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="700" spans="1:12" ht="45">
+    <row r="700" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F700" s="13" t="s">
         <v>483</v>
       </c>
@@ -9860,7 +9869,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="701" spans="1:12" ht="30">
+    <row r="701" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F701" s="10" t="s">
         <v>486</v>
       </c>
@@ -9868,7 +9877,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="702" spans="1:12" ht="45">
+    <row r="702" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F702" s="10" t="s">
         <v>489</v>
       </c>
@@ -9876,7 +9885,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="703" spans="1:12" ht="30">
+    <row r="703" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F703" s="10" t="s">
         <v>491</v>
       </c>
@@ -9884,7 +9893,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="45">
+    <row r="706" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A706" s="10" t="s">
         <v>530</v>
       </c>
@@ -9901,7 +9910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="707" spans="1:7" ht="30">
+    <row r="707" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F707" s="13" t="s">
         <v>239</v>
       </c>
@@ -9909,7 +9918,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="45">
+    <row r="708" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F708" s="13" t="s">
         <v>483</v>
       </c>
@@ -9917,7 +9926,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="30">
+    <row r="709" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F709" s="10" t="s">
         <v>486</v>
       </c>
@@ -9925,7 +9934,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="45">
+    <row r="710" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F710" s="10" t="s">
         <v>489</v>
       </c>
@@ -9933,7 +9942,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="30">
+    <row r="711" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F711" s="10" t="s">
         <v>491</v>
       </c>
@@ -9941,7 +9950,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="45">
+    <row r="714" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A714" s="10" t="s">
         <v>531</v>
       </c>
@@ -9958,7 +9967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="30">
+    <row r="715" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F715" s="13" t="s">
         <v>239</v>
       </c>
@@ -9966,7 +9975,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="716" spans="1:7" ht="45">
+    <row r="716" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F716" s="13" t="s">
         <v>483</v>
       </c>
@@ -9974,7 +9983,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="30">
+    <row r="717" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F717" s="10" t="s">
         <v>486</v>
       </c>
@@ -9982,7 +9991,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="45">
+    <row r="718" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F718" s="10" t="s">
         <v>489</v>
       </c>
@@ -9990,7 +9999,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="30">
+    <row r="719" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F719" s="10" t="s">
         <v>491</v>
       </c>
@@ -9998,7 +10007,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="45">
+    <row r="722" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A722" s="10" t="s">
         <v>532</v>
       </c>
@@ -10015,7 +10024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="723" spans="1:7" ht="30">
+    <row r="723" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F723" s="13" t="s">
         <v>239</v>
       </c>
@@ -10023,7 +10032,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="30">
+    <row r="724" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F724" s="13" t="s">
         <v>499</v>
       </c>
@@ -10031,7 +10040,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="725" spans="1:7" ht="30">
+    <row r="725" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F725" s="10" t="s">
         <v>486</v>
       </c>
@@ -10039,7 +10048,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="45">
+    <row r="726" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F726" s="10" t="s">
         <v>489</v>
       </c>
@@ -10047,7 +10056,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="30">
+    <row r="727" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F727" s="10" t="s">
         <v>491</v>
       </c>
@@ -10055,7 +10064,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="730" spans="1:7" ht="45">
+    <row r="730" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A730" s="10" t="s">
         <v>533</v>
       </c>
@@ -10072,7 +10081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="30">
+    <row r="731" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F731" s="13" t="s">
         <v>239</v>
       </c>
@@ -10080,7 +10089,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="732" spans="1:7" ht="30">
+    <row r="732" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F732" s="13" t="s">
         <v>500</v>
       </c>
@@ -10088,7 +10097,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="733" spans="1:7" ht="30">
+    <row r="733" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F733" s="10" t="s">
         <v>486</v>
       </c>
@@ -10096,7 +10105,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="45">
+    <row r="734" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="F734" s="10" t="s">
         <v>489</v>
       </c>
@@ -10104,7 +10113,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="30">
+    <row r="735" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F735" s="10" t="s">
         <v>491</v>
       </c>
@@ -10112,7 +10121,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="45">
+    <row r="738" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A738" s="10" t="s">
         <v>534</v>
       </c>
@@ -10129,7 +10138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="30">
+    <row r="739" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F739" s="13" t="s">
         <v>239</v>
       </c>
@@ -10137,7 +10146,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="30">
+    <row r="740" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F740" s="13" t="s">
         <v>501</v>
       </c>
@@ -10145,7 +10154,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="741" spans="1:7" ht="60">
+    <row r="741" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="F741" s="10" t="s">
         <v>502</v>
       </c>
@@ -10153,7 +10162,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="45">
+    <row r="743" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A743" s="10" t="s">
         <v>538</v>
       </c>
@@ -10170,7 +10179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="30">
+    <row r="744" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F744" s="13" t="s">
         <v>239</v>
       </c>
@@ -10178,7 +10187,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="30">
+    <row r="745" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F745" s="13" t="s">
         <v>501</v>
       </c>
@@ -10186,7 +10195,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="60">
+    <row r="746" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="F746" s="10" t="s">
         <v>502</v>
       </c>
@@ -10201,19 +10210,19 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C742 C734:C736 C726:C728 C718:C720 C710:C712 C702:C704 C694:C696 C686:C689 C633 C639 C645 C651 C657 C663 C669 C675 C626:C627">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C742 C734:C736 C726:C728 C718:C720 C710:C712 C702:C704 C694:C696 C686:C689 C633 C639 C645 C651 C657 C663 C669 C675 C626:C627" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C743:C746 C738:C741 C730:C733 C722:C725 C714:C717 C706:C709 C698:C701 C690:C693 C634:C638 C640:C644 C646:C650 C652:C656 C658:C662 C664:C668 C670:C674 C676:C685 C121:C625 K64:K473 C57:C64 C2:C54 K2:K47 C66:C118 C628:C632">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C743:C746 C738:C741 C730:C733 C722:C725 C714:C717 C706:C709 C698:C701 C690:C693 C634:C638 C640:C644 C646:C650 C652:C656 C658:C662 C664:C668 C670:C674 C676:C685 C121:C625 K64:K473 C57:C64 C2:C54 K2:K47 C66:C118 C628:C632" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Anjana S, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K474:K653">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K474:K653" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Anjana S, Salini S, Preethi J, Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143 B378 B370:B371 B363:B364 B357 B288 B292 B272 B256 B263:B264 B249 B237:B239 B290 B246:B247 B230 B226 B302 B296 B280 B135 B127 B133 B121 B111:B112 B105 B103 B97 B95 B88:B89 B157 B151 B221:B222 B203 B189 B176 B174 B80:B82 B74 B332 B325:B326 B304 B48 B216 B210 B66 B64 B318:B319 B38:B40 B312 B57 B196 B30:B32 B22:B25 B347:B348 B310 B8 B184 B14:B16 B340:B341 B334 B2 B168 B165 B159 B141 B149">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143 B378 B370:B371 B363:B364 B357 B288 B292 B272 B256 B263:B264 B249 B237:B239 B290 B246:B247 B230 B226 B302 B296 B280 B135 B127 B133 B121 B111:B112 B105 B103 B97 B95 B88:B89 B157 B151 B221:B222 B203 B189 B176 B174 B80:B82 B74 B332 B325:B326 B304 B48 B216 B210 B66 B64 B318:B319 B38:B40 B312 B57 B196 B30:B32 B22:B25 B347:B348 B310 B8 B184 B14:B16 B340:B341 B334 B2 B168 B165 B159 B141 B149" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L48 L64:L580 L582:L694">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L48 L64:L580 L582:L694" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10223,14 +10232,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="3" width="29.140625" customWidth="1"/>
@@ -10239,7 +10248,7 @@
     <col min="6" max="6" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>250</v>
       </c>
@@ -10257,13 +10266,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>254</v>
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="45">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1</v>
       </c>
@@ -10274,7 +10283,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2</v>
       </c>
@@ -10285,7 +10294,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105">
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>3</v>
       </c>
@@ -10296,7 +10305,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>4</v>
       </c>
@@ -10307,7 +10316,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>263</v>
       </c>
@@ -10316,7 +10325,7 @@
       </c>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1</v>
       </c>
@@ -10327,7 +10336,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75">
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2</v>
       </c>
@@ -10338,7 +10347,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="105">
+    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>3</v>
       </c>
@@ -10349,7 +10358,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>4</v>
       </c>
@@ -10360,7 +10369,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>5</v>
       </c>
@@ -10374,7 +10383,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>267</v>
       </c>
@@ -10391,7 +10400,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75">
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>2</v>
       </c>
@@ -10402,7 +10411,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="105">
+    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>3</v>
       </c>
@@ -10413,7 +10422,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>4</v>
       </c>
@@ -10424,7 +10433,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>271</v>
       </c>
@@ -10441,7 +10450,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>2</v>
       </c>
@@ -10452,7 +10461,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="105">
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>3</v>
       </c>
@@ -10463,7 +10472,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>4</v>
       </c>
@@ -10474,7 +10483,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>5</v>
       </c>
@@ -10485,7 +10494,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>275</v>
       </c>
@@ -10502,7 +10511,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="75">
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>2</v>
       </c>
@@ -10513,7 +10522,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="105">
+    <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>3</v>
       </c>
@@ -10524,7 +10533,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>4</v>
       </c>
@@ -10535,7 +10544,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>279</v>
       </c>
@@ -10552,7 +10561,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="75">
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>2</v>
       </c>
@@ -10563,7 +10572,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="105">
+    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>3</v>
       </c>
@@ -10574,7 +10583,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="45">
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>4</v>
       </c>
@@ -10585,7 +10594,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>5</v>
       </c>
@@ -10596,7 +10605,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>6</v>
       </c>
@@ -10607,7 +10616,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>285</v>
       </c>
@@ -10624,7 +10633,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="75">
+    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>2</v>
       </c>
@@ -10635,7 +10644,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="105">
+    <row r="35" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>3</v>
       </c>
@@ -10646,7 +10655,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="45">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>4</v>
       </c>
@@ -10657,7 +10666,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="45">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>289</v>
       </c>
@@ -10674,7 +10683,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="75">
+    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>2</v>
       </c>
@@ -10685,7 +10694,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="105">
+    <row r="39" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>3</v>
       </c>
@@ -10696,7 +10705,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="45">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>4</v>
       </c>
@@ -10707,7 +10716,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>5</v>
       </c>
@@ -10718,7 +10727,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="45">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>293</v>
       </c>
@@ -10735,7 +10744,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="75">
+    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>2</v>
       </c>
@@ -10746,7 +10755,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="105">
+    <row r="45" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>3</v>
       </c>
@@ -10757,7 +10766,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>4</v>
       </c>
@@ -10768,7 +10777,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="180">
+    <row r="47" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>5</v>
       </c>
@@ -10779,7 +10788,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>300</v>
       </c>
@@ -10796,7 +10805,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="75">
+    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>2</v>
       </c>
@@ -10807,7 +10816,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="105">
+    <row r="50" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>3</v>
       </c>
@@ -10818,7 +10827,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45">
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>4</v>
       </c>
@@ -10829,7 +10838,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="180">
+    <row r="52" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>5</v>
       </c>
@@ -10840,7 +10849,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60">
+    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>6</v>
       </c>
@@ -10851,7 +10860,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>300</v>
       </c>
@@ -10866,7 +10875,7 @@
       </c>
       <c r="E54" s="13"/>
     </row>
-    <row r="55" spans="1:5" ht="75">
+    <row r="55" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>2</v>
       </c>
@@ -10877,7 +10886,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30">
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>3</v>
       </c>
@@ -10888,7 +10897,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="45">
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>300</v>
       </c>
@@ -10903,7 +10912,7 @@
       </c>
       <c r="E57" s="13"/>
     </row>
-    <row r="58" spans="1:5" ht="75">
+    <row r="58" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>2</v>
       </c>
@@ -10914,7 +10923,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="60">
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>3</v>
       </c>
@@ -10925,12 +10934,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C60" s="15" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="45">
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>314</v>
       </c>
@@ -10944,7 +10953,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="60">
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D62" s="13" t="s">
         <v>231</v>
       </c>
@@ -10952,7 +10961,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D63" s="13" t="s">
         <v>233</v>
       </c>
@@ -10960,7 +10969,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="45">
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>314</v>
       </c>
@@ -10974,7 +10983,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="60">
+    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D66" s="13" t="s">
         <v>231</v>
       </c>
@@ -10982,7 +10991,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D67" s="13" t="s">
         <v>315</v>
       </c>
@@ -10990,7 +10999,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -11004,7 +11013,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="60">
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D70" s="13" t="s">
         <v>231</v>
       </c>
@@ -11012,7 +11021,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="165">
+    <row r="71" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="D71" s="13" t="s">
         <v>317</v>
       </c>
@@ -11020,7 +11029,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D72" s="13" t="s">
         <v>318</v>
       </c>
@@ -11028,7 +11037,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="45">
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -11042,7 +11051,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="75">
+    <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="D74" s="13" t="s">
         <v>241</v>
       </c>
@@ -11050,7 +11059,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="210">
+    <row r="75" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="D75" s="13" t="s">
         <v>243</v>
       </c>
@@ -11058,7 +11067,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D76" s="13" t="s">
         <v>245</v>
       </c>
@@ -11066,7 +11075,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D77" s="13" t="s">
         <v>247</v>
       </c>
@@ -11074,7 +11083,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="30">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>4</v>
       </c>
@@ -11088,7 +11097,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="60">
+    <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D80" s="13" t="s">
         <v>321</v>
       </c>
@@ -11096,7 +11105,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="240">
+    <row r="81" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="D81" s="13" t="s">
         <v>323</v>
       </c>
@@ -11104,7 +11113,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D82" s="13" t="s">
         <v>325</v>
       </c>
@@ -11112,7 +11121,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="60">
+    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5</v>
       </c>
@@ -11126,7 +11135,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="60">
+    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D84" s="13" t="s">
         <v>321</v>
       </c>
@@ -11134,7 +11143,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="45">
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D85" s="13" t="s">
         <v>328</v>
       </c>
@@ -11142,7 +11151,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30">
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D86" s="13" t="s">
         <v>329</v>
       </c>
@@ -11150,7 +11159,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -11164,7 +11173,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="60">
+    <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D89" s="13" t="s">
         <v>321</v>
       </c>
@@ -11172,7 +11181,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="45">
+    <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D90" s="13" t="s">
         <v>328</v>
       </c>
@@ -11180,7 +11189,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D91" s="13" t="s">
         <v>332</v>
       </c>
@@ -11188,7 +11197,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="30">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7</v>
       </c>
@@ -11202,7 +11211,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="60">
+    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D94" s="13" t="s">
         <v>321</v>
       </c>
@@ -11210,7 +11219,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="45">
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D95" s="13" t="s">
         <v>335</v>
       </c>
@@ -11218,7 +11227,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D96" s="13" t="s">
         <v>336</v>
       </c>
@@ -11226,7 +11235,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="30">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>8.8888888888888797E+104</v>
       </c>
@@ -11240,7 +11249,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="60">
+    <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D99" s="13" t="s">
         <v>339</v>
       </c>
@@ -11248,7 +11257,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="225">
+    <row r="100" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="D100" s="13" t="s">
         <v>341</v>
       </c>
@@ -11256,7 +11265,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="45">
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9</v>
       </c>
@@ -11270,7 +11279,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="60">
+    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D103" s="13" t="s">
         <v>344</v>
       </c>
@@ -11278,7 +11287,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="45">
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D104" s="13" t="s">
         <v>335</v>
       </c>
@@ -11286,7 +11295,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="30">
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D105" s="13" t="s">
         <v>329</v>
       </c>
@@ -11294,7 +11303,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="30">
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10</v>
       </c>
@@ -11308,7 +11317,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="60">
+    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D109" s="13" t="s">
         <v>347</v>
       </c>
@@ -11316,7 +11325,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="45">
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D110" s="13" t="s">
         <v>335</v>
       </c>
@@ -11324,7 +11333,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="30">
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D111" s="13" t="s">
         <v>336</v>
       </c>
@@ -11332,7 +11341,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="30">
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11</v>
       </c>
@@ -11346,7 +11355,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="60">
+    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D113" s="13" t="s">
         <v>347</v>
       </c>
@@ -11354,7 +11363,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="45">
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D114" s="13" t="s">
         <v>335</v>
       </c>
@@ -11362,7 +11371,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="30">
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D115" s="13" t="s">
         <v>332</v>
       </c>
@@ -11370,7 +11379,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="30">
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>12</v>
       </c>
@@ -11384,7 +11393,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="60">
+    <row r="119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D119" s="13" t="s">
         <v>350</v>
       </c>
@@ -11392,7 +11401,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="45">
+    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D120" s="13" t="s">
         <v>351</v>
       </c>
@@ -11400,7 +11409,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="30">
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>13</v>
       </c>
@@ -11414,7 +11423,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="60">
+    <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D122" s="13" t="s">
         <v>353</v>
       </c>
@@ -11422,7 +11431,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="150">
+    <row r="123" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="D123" s="13" t="s">
         <v>355</v>
       </c>
@@ -11430,7 +11439,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="30">
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>13</v>
       </c>
@@ -11444,7 +11453,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="60">
+    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D127" s="13" t="s">
         <v>358</v>
       </c>
@@ -11452,7 +11461,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="45">
+    <row r="128" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D128" s="13" t="s">
         <v>360</v>
       </c>
@@ -11460,17 +11469,17 @@
         <v>361</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="45">
+    <row r="134" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>475</v>
       </c>

--- a/Test Execution/Sangeetha/Testcase- Insurance  - Copy of Anjana.xlsx
+++ b/Test Execution/Sangeetha/Testcase- Insurance  - Copy of Anjana.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="595">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2197,6 +2197,39 @@
   </si>
   <si>
     <t>same as expected</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Collection&amp;Allocations&gt;&gt; Final Settlement</t>
+  </si>
+  <si>
+    <t>User should be able to process  Final Settlement</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Collection&amp;Allocations&gt;&gt;Bill Settlement</t>
+  </si>
+  <si>
+    <t>User should be able to process Bill Settlement</t>
+  </si>
+  <si>
+    <t>Go to Menu from left pane and select 
+Menu&gt;&gt;Collection&amp;Allocations&gt;&gt; Batchwise Write off</t>
+  </si>
+  <si>
+    <t>User should be able to process  Batchwise Write off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to process add policy in Utlities for Insurance </t>
+  </si>
+  <si>
+    <t>Add policy</t>
+  </si>
+  <si>
+    <t>New policies should be saved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as </t>
   </si>
 </sst>
 </file>
@@ -2323,7 +2356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2376,12 +2409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2395,6 +2422,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2704,7 +2743,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2714,9 +2753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I692" sqref="I692"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A736" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D740" sqref="D740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2777,14 +2816,14 @@
       <c r="M1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="R1" s="21" t="s">
+      <c r="P1" s="25"/>
+      <c r="R1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="21"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:19" s="11" customFormat="1" ht="71.25" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -2822,7 +2861,7 @@
       </c>
       <c r="S2" s="5">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="11" customFormat="1" ht="30">
@@ -2856,7 +2895,10 @@
       <c r="R3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="5"/>
+      <c r="S3" s="5">
+        <f>COUNTIF(L:L,"Fail")</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:19" s="11" customFormat="1" ht="30">
       <c r="A4" s="10"/>
@@ -7806,31 +7848,31 @@
       <c r="K488" s="3"/>
       <c r="L488" s="3"/>
     </row>
-    <row r="489" spans="1:12" s="24" customFormat="1" ht="45">
-      <c r="A489" s="22" t="s">
+    <row r="489" spans="1:12" s="22" customFormat="1" ht="45">
+      <c r="A489" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="B489" s="22"/>
-      <c r="C489" s="24" t="s">
+      <c r="B489" s="20"/>
+      <c r="C489" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D489" s="23" t="s">
+      <c r="D489" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="E489" s="22"/>
-      <c r="F489" s="22" t="s">
+      <c r="E489" s="20"/>
+      <c r="F489" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G489" s="22"/>
-      <c r="H489" s="22" t="s">
+      <c r="G489" s="20"/>
+      <c r="H489" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="I489" s="22"/>
-      <c r="J489" s="22" t="s">
+      <c r="I489" s="20"/>
+      <c r="J489" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="K489" s="25"/>
-      <c r="L489" s="25"/>
+      <c r="K489" s="23"/>
+      <c r="L489" s="23"/>
     </row>
     <row r="490" spans="1:12" ht="30">
       <c r="F490" s="13" t="s">
@@ -8559,29 +8601,33 @@
       <c r="K564" s="3"/>
       <c r="L564" s="3"/>
     </row>
-    <row r="565" spans="1:12" s="24" customFormat="1" ht="45">
-      <c r="A565" s="22" t="s">
+    <row r="565" spans="1:12" s="27" customFormat="1" ht="45">
+      <c r="A565" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="B565" s="22" t="s">
+      <c r="B565" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="C565" s="24" t="s">
+      <c r="C565" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D565" s="23" t="s">
+      <c r="D565" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="E565" s="22"/>
-      <c r="F565" s="22" t="s">
+      <c r="E565" s="19"/>
+      <c r="F565" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G565" s="22"/>
-      <c r="H565" s="22"/>
-      <c r="I565" s="22"/>
-      <c r="J565" s="22"/>
-      <c r="K565" s="25"/>
-      <c r="L565" s="25"/>
+      <c r="G565" s="19"/>
+      <c r="H565" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="I565" s="19"/>
+      <c r="J565" s="19"/>
+      <c r="K565" s="3"/>
+      <c r="L565" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="566" spans="1:12" ht="30">
       <c r="F566" s="13" t="s">
@@ -9381,20 +9427,20 @@
       <c r="L646" s="3"/>
     </row>
     <row r="647" spans="1:12" ht="30">
-      <c r="F647" s="26" t="s">
+      <c r="F647" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="G647" s="26" t="s">
+      <c r="G647" s="24" t="s">
         <v>240</v>
       </c>
       <c r="K647" s="3"/>
       <c r="L647" s="3"/>
     </row>
     <row r="648" spans="1:12" ht="45">
-      <c r="F648" s="26" t="s">
+      <c r="F648" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="G648" s="26" t="s">
+      <c r="G648" s="24" t="s">
         <v>474</v>
       </c>
       <c r="K648" s="3"/>
@@ -9443,20 +9489,20 @@
       </c>
     </row>
     <row r="653" spans="1:12" ht="30">
-      <c r="F653" s="26" t="s">
+      <c r="F653" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="G653" s="26" t="s">
+      <c r="G653" s="24" t="s">
         <v>240</v>
       </c>
       <c r="K653" s="3"/>
       <c r="L653" s="3"/>
     </row>
     <row r="654" spans="1:12" ht="45">
-      <c r="F654" s="26" t="s">
+      <c r="F654" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="G654" s="26" t="s">
+      <c r="G654" s="24" t="s">
         <v>474</v>
       </c>
       <c r="L654" s="3"/>
@@ -9697,14 +9743,6 @@
       </c>
       <c r="L680" s="3"/>
     </row>
-    <row r="681" spans="1:12">
-      <c r="H681" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="L681" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="682" spans="1:12" ht="45">
       <c r="A682" s="10" t="s">
         <v>527</v>
@@ -9721,7 +9759,12 @@
       <c r="F682" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L682" s="3"/>
+      <c r="H682" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="L682" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="683" spans="1:12" ht="30">
       <c r="F683" s="13" t="s">
@@ -9854,10 +9897,10 @@
     </row>
     <row r="700" spans="1:12" ht="45">
       <c r="F700" s="13" t="s">
-        <v>483</v>
+        <v>585</v>
       </c>
       <c r="G700" s="13" t="s">
-        <v>485</v>
+        <v>586</v>
       </c>
     </row>
     <row r="701" spans="1:12" ht="30">
@@ -9911,10 +9954,10 @@
     </row>
     <row r="708" spans="1:7" ht="45">
       <c r="F708" s="13" t="s">
-        <v>483</v>
+        <v>587</v>
       </c>
       <c r="G708" s="13" t="s">
-        <v>485</v>
+        <v>588</v>
       </c>
     </row>
     <row r="709" spans="1:7" ht="30">
@@ -9968,10 +10011,10 @@
     </row>
     <row r="716" spans="1:7" ht="45">
       <c r="F716" s="13" t="s">
-        <v>483</v>
+        <v>589</v>
       </c>
       <c r="G716" s="13" t="s">
-        <v>485</v>
+        <v>590</v>
       </c>
     </row>
     <row r="717" spans="1:7" ht="30">
@@ -9998,7 +10041,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="45">
+    <row r="722" spans="1:8" ht="45">
       <c r="A722" s="10" t="s">
         <v>532</v>
       </c>
@@ -10014,8 +10057,11 @@
       <c r="F722" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="723" spans="1:7" ht="30">
+      <c r="H722" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" ht="30">
       <c r="F723" s="13" t="s">
         <v>239</v>
       </c>
@@ -10023,15 +10069,15 @@
         <v>240</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="30">
+    <row r="724" spans="1:8" ht="45">
       <c r="F724" s="13" t="s">
         <v>499</v>
       </c>
       <c r="G724" s="13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="725" spans="1:7" ht="30">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" ht="30">
       <c r="F725" s="10" t="s">
         <v>486</v>
       </c>
@@ -10039,7 +10085,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="45">
+    <row r="726" spans="1:8" ht="45">
       <c r="F726" s="10" t="s">
         <v>489</v>
       </c>
@@ -10047,15 +10093,15 @@
         <v>490</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="30">
+    <row r="727" spans="1:8" ht="30">
       <c r="F727" s="10" t="s">
-        <v>491</v>
+        <v>592</v>
       </c>
       <c r="G727" s="10" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="730" spans="1:7" ht="45">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" ht="45">
       <c r="A730" s="10" t="s">
         <v>533</v>
       </c>
@@ -10072,7 +10118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="30">
+    <row r="731" spans="1:8" ht="30">
       <c r="F731" s="13" t="s">
         <v>239</v>
       </c>
@@ -10080,7 +10126,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="732" spans="1:7" ht="30">
+    <row r="732" spans="1:8" ht="30">
       <c r="F732" s="13" t="s">
         <v>500</v>
       </c>
@@ -10088,7 +10134,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="733" spans="1:7" ht="30">
+    <row r="733" spans="1:8" ht="30">
       <c r="F733" s="10" t="s">
         <v>486</v>
       </c>
@@ -10096,7 +10142,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="45">
+    <row r="734" spans="1:8" ht="45">
       <c r="F734" s="10" t="s">
         <v>489</v>
       </c>
@@ -10104,7 +10150,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="30">
+    <row r="735" spans="1:8" ht="30">
       <c r="F735" s="10" t="s">
         <v>491</v>
       </c>
@@ -10213,7 +10259,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B143 B378 B370:B371 B363:B364 B357 B288 B292 B272 B256 B263:B264 B249 B237:B239 B290 B246:B247 B230 B226 B302 B296 B280 B135 B127 B133 B121 B111:B112 B105 B103 B97 B95 B88:B89 B157 B151 B221:B222 B203 B189 B176 B174 B80:B82 B74 B332 B325:B326 B304 B48 B216 B210 B66 B64 B318:B319 B38:B40 B312 B57 B196 B30:B32 B22:B25 B347:B348 B310 B8 B184 B14:B16 B340:B341 B334 B2 B168 B165 B159 B141 B149">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L48 L64:L580 L582:L694">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L48 L682:L694 L582:L680 L64:L580">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
